--- a/仕様書/作業スケジュール_PG.xlsx
+++ b/仕様書/作業スケジュール_PG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
   <si>
     <t>8月27日まで完成させる</t>
   </si>
@@ -402,9 +402,6 @@
   </si>
   <si>
     <t>見れる距離は２．５倍（のちに変更できる値にしておくこと）</t>
-  </si>
-  <si>
-    <t>あるボタンが押されたらスタンという画面内に描画れてる敵をすべて行動・攻撃不能にする</t>
   </si>
   <si>
     <t>UI</t>
@@ -427,10 +424,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -456,14 +453,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,16 +482,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,61 +497,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,9 +520,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,30 +537,70 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -631,7 +616,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,43 +754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,79 +778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,31 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,15 +1042,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1077,6 +1053,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,6 +1092,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1110,26 +1115,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1138,145 +1123,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1407,7 +1392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1419,31 +1404,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1497,7 +1482,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -1509,25 +1494,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1563,25 +1545,22 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -1590,19 +1569,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1620,7 +1605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,8 +1635,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1968,10 +1953,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:U132"/>
+  <dimension ref="B1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1416666666667" defaultRowHeight="14.25"/>
@@ -2144,11 +2129,11 @@
         <v>17</v>
       </c>
       <c r="Q17" s="13"/>
-      <c r="R17" s="84" t="s">
+      <c r="R17" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="S17" s="85"/>
-      <c r="T17" s="86"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="85"/>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="12"/>
@@ -2175,9 +2160,9 @@
         <v>21</v>
       </c>
       <c r="Q18" s="13"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="89"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="88"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="12"/>
@@ -2204,9 +2189,9 @@
         <v>21</v>
       </c>
       <c r="Q19" s="13"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="89"/>
+      <c r="R19" s="86"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="88"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="12"/>
@@ -2233,9 +2218,9 @@
         <v>24</v>
       </c>
       <c r="Q20" s="13"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="89"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="88"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="12"/>
@@ -2258,9 +2243,9 @@
       <c r="O21" s="61"/>
       <c r="P21" s="58"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="89"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="88"/>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="12"/>
@@ -2283,9 +2268,9 @@
       <c r="O22" s="62"/>
       <c r="P22" s="58"/>
       <c r="Q22" s="13"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="89"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="88"/>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="12"/>
@@ -2312,9 +2297,9 @@
         <v>28</v>
       </c>
       <c r="Q23" s="13"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="89"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="88"/>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="12"/>
@@ -2337,9 +2322,9 @@
       <c r="O24" s="64"/>
       <c r="P24" s="58"/>
       <c r="Q24" s="13"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="89"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="88"/>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" s="12"/>
@@ -2362,9 +2347,9 @@
       <c r="O25" s="65"/>
       <c r="P25" s="58"/>
       <c r="Q25" s="13"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="89"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="88"/>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="12"/>
@@ -2391,9 +2376,9 @@
         <v>32</v>
       </c>
       <c r="Q26" s="13"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="89"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="88"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="12"/>
@@ -2418,9 +2403,9 @@
         <v>28</v>
       </c>
       <c r="Q27" s="13"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="89"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="88"/>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="12"/>
@@ -2445,9 +2430,9 @@
         <v>35</v>
       </c>
       <c r="Q28" s="13"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="89"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="88"/>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="12"/>
@@ -2470,9 +2455,9 @@
       <c r="O29" s="62"/>
       <c r="P29" s="58"/>
       <c r="Q29" s="13"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="89"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="88"/>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="12"/>
@@ -2499,9 +2484,9 @@
         <v>38</v>
       </c>
       <c r="Q30" s="13"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="92"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="91"/>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="12"/>
@@ -2751,11 +2736,11 @@
         <v>53</v>
       </c>
       <c r="Q41" s="19"/>
-      <c r="R41" s="84" t="s">
+      <c r="R41" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="S41" s="85"/>
-      <c r="T41" s="86"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="85"/>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="12"/>
@@ -2780,9 +2765,9 @@
         <v>56</v>
       </c>
       <c r="Q42" s="2"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="89"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="88"/>
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="12"/>
@@ -2802,9 +2787,9 @@
       <c r="L43" s="1"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="89"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="87"/>
+      <c r="T43" s="88"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="12"/>
@@ -2824,9 +2809,9 @@
       <c r="L44" s="1"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="89"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="88"/>
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="12"/>
@@ -2849,9 +2834,9 @@
       <c r="O45" s="45"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="93"/>
-      <c r="T45" s="89"/>
+      <c r="R45" s="86"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="88"/>
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="12"/>
@@ -2878,11 +2863,11 @@
         <v>62</v>
       </c>
       <c r="Q46" s="8"/>
-      <c r="R46" s="84" t="s">
+      <c r="R46" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="S46" s="85"/>
-      <c r="T46" s="86"/>
+      <c r="S46" s="84"/>
+      <c r="T46" s="85"/>
     </row>
     <row r="47" spans="2:20">
       <c r="B47" s="12"/>
@@ -2905,9 +2890,9 @@
       <c r="O47" s="45"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="19"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="89"/>
+      <c r="R47" s="86"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="88"/>
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="12"/>
@@ -2930,9 +2915,9 @@
       <c r="O48" s="45"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="19"/>
-      <c r="R48" s="87"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="89"/>
+      <c r="R48" s="86"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="88"/>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="12"/>
@@ -2955,9 +2940,9 @@
       <c r="O49" s="73"/>
       <c r="P49" s="31"/>
       <c r="Q49" s="29"/>
-      <c r="R49" s="90"/>
-      <c r="S49" s="91"/>
-      <c r="T49" s="92"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="90"/>
+      <c r="T49" s="91"/>
     </row>
     <row r="50" spans="2:20">
       <c r="B50" s="12"/>
@@ -3245,10 +3230,10 @@
       <c r="K61" s="52"/>
       <c r="L61" s="52"/>
       <c r="M61" s="52"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="82"/>
-      <c r="Q61" s="82"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81"/>
       <c r="R61" s="12"/>
       <c r="S61" s="2"/>
       <c r="T61" s="36"/>
@@ -3270,7 +3255,7 @@
       <c r="K62" s="54"/>
       <c r="L62" s="54"/>
       <c r="M62" s="54"/>
-      <c r="N62" s="83" t="s">
+      <c r="N62" s="82" t="s">
         <v>79</v>
       </c>
       <c r="O62" s="32"/>
@@ -3364,16 +3349,16 @@
         <v>54</v>
       </c>
       <c r="E66" s="8"/>
-      <c r="F66" s="94" t="s">
+      <c r="F66" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="80"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="72"/>
+      <c r="I66" s="72"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="72"/>
+      <c r="M66" s="72"/>
       <c r="N66" s="12"/>
       <c r="O66" s="36"/>
       <c r="P66" s="2" t="s">
@@ -3468,7 +3453,7 @@
       <c r="E70" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F70" s="95" t="s">
+      <c r="F70" s="94" t="s">
         <v>88</v>
       </c>
       <c r="G70" s="79"/>
@@ -3630,7 +3615,7 @@
       <c r="K76" s="52"/>
       <c r="L76" s="52"/>
       <c r="M76" s="52"/>
-      <c r="N76" s="80"/>
+      <c r="N76" s="72"/>
       <c r="O76" s="106"/>
       <c r="P76" s="107"/>
       <c r="Q76" s="107"/>
@@ -3655,7 +3640,7 @@
       <c r="K77" s="54"/>
       <c r="L77" s="54"/>
       <c r="M77" s="54"/>
-      <c r="N77" s="83" t="s">
+      <c r="N77" s="82" t="s">
         <v>79</v>
       </c>
       <c r="O77" s="108"/>
@@ -3803,12 +3788,12 @@
       <c r="E83" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F83" s="96" t="s">
+      <c r="F83" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="G83" s="97"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="97"/>
+      <c r="G83" s="96"/>
+      <c r="H83" s="96"/>
+      <c r="I83" s="96"/>
       <c r="J83" s="52"/>
       <c r="K83" s="52"/>
       <c r="L83" s="52"/>
@@ -3905,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="E87" s="2"/>
-      <c r="F87" s="98" t="s">
+      <c r="F87" s="97" t="s">
         <v>105</v>
       </c>
       <c r="G87" s="73"/>
@@ -3930,7 +3915,7 @@
         <v>54</v>
       </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="99" t="s">
+      <c r="F88" s="98" t="s">
         <v>77</v>
       </c>
       <c r="G88" s="77"/>
@@ -4009,7 +3994,7 @@
         <v>6</v>
       </c>
       <c r="E91" s="2"/>
-      <c r="F91" s="98" t="s">
+      <c r="F91" s="97" t="s">
         <v>97</v>
       </c>
       <c r="G91" s="73"/>
@@ -4161,7 +4146,7 @@
         <v>9</v>
       </c>
       <c r="E97" s="29"/>
-      <c r="F97" s="98" t="s">
+      <c r="F97" s="97" t="s">
         <v>113</v>
       </c>
       <c r="G97" s="73"/>
@@ -4180,8 +4165,8 @@
       <c r="T97" s="60"/>
     </row>
     <row r="99" spans="8:12">
-      <c r="H99" s="100"/>
-      <c r="L99" s="100"/>
+      <c r="H99" s="5"/>
+      <c r="L99" s="5"/>
     </row>
     <row r="101" spans="2:20">
       <c r="B101" s="7" t="s">
@@ -4194,18 +4179,18 @@
       <c r="E101" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F101" s="101" t="s">
+      <c r="F101" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="G101" s="101"/>
-      <c r="H101" s="101"/>
-      <c r="I101" s="101"/>
-      <c r="J101" s="101"/>
-      <c r="K101" s="101"/>
-      <c r="L101" s="101"/>
-      <c r="M101" s="101"/>
-      <c r="N101" s="101"/>
-      <c r="O101" s="101"/>
+      <c r="G101" s="99"/>
+      <c r="H101" s="99"/>
+      <c r="I101" s="99"/>
+      <c r="J101" s="99"/>
+      <c r="K101" s="99"/>
+      <c r="L101" s="99"/>
+      <c r="M101" s="99"/>
+      <c r="N101" s="99"/>
+      <c r="O101" s="99"/>
       <c r="P101" s="7" t="s">
         <v>116</v>
       </c>
@@ -4310,18 +4295,18 @@
       <c r="E108" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F108" s="102" t="s">
+      <c r="F108" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="G108" s="102"/>
-      <c r="H108" s="102"/>
-      <c r="I108" s="102"/>
-      <c r="J108" s="102"/>
-      <c r="K108" s="102"/>
-      <c r="L108" s="102"/>
-      <c r="M108" s="102"/>
-      <c r="N108" s="102"/>
-      <c r="O108" s="102"/>
+      <c r="G108" s="100"/>
+      <c r="H108" s="100"/>
+      <c r="I108" s="100"/>
+      <c r="J108" s="100"/>
+      <c r="K108" s="100"/>
+      <c r="L108" s="100"/>
+      <c r="M108" s="100"/>
+      <c r="N108" s="100"/>
+      <c r="O108" s="100"/>
       <c r="P108" s="13" t="s">
         <v>21</v>
       </c>
@@ -4437,18 +4422,18 @@
       <c r="E114" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F114" s="103" t="s">
+      <c r="F114" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="G114" s="103"/>
-      <c r="H114" s="103"/>
-      <c r="I114" s="103"/>
-      <c r="J114" s="103"/>
-      <c r="K114" s="103"/>
-      <c r="L114" s="103"/>
-      <c r="M114" s="103"/>
-      <c r="N114" s="103"/>
-      <c r="O114" s="103"/>
+      <c r="G114" s="42"/>
+      <c r="H114" s="42"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="42"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="42"/>
+      <c r="M114" s="42"/>
+      <c r="N114" s="42"/>
+      <c r="O114" s="42"/>
       <c r="P114" s="7" t="s">
         <v>38</v>
       </c>
@@ -4485,56 +4470,50 @@
       <c r="T115" s="36"/>
     </row>
     <row r="116" spans="2:20">
-      <c r="B116" s="12"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="12">
+      <c r="B116" s="31"/>
+      <c r="C116" s="101"/>
+      <c r="D116" s="31">
         <v>2</v>
       </c>
-      <c r="E116" s="39"/>
-      <c r="F116" s="3" t="s">
+      <c r="E116" s="40"/>
+      <c r="F116" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
-      <c r="O116" s="3"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="36"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
-      <c r="T116" s="36"/>
+      <c r="G116" s="102"/>
+      <c r="H116" s="102"/>
+      <c r="I116" s="102"/>
+      <c r="J116" s="102"/>
+      <c r="K116" s="102"/>
+      <c r="L116" s="102"/>
+      <c r="M116" s="102"/>
+      <c r="N116" s="102"/>
+      <c r="O116" s="102"/>
+      <c r="P116" s="31"/>
+      <c r="Q116" s="60"/>
+      <c r="R116" s="123"/>
+      <c r="S116" s="123"/>
+      <c r="T116" s="60"/>
     </row>
     <row r="117" spans="2:20">
-      <c r="B117" s="31"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="31">
-        <v>3</v>
-      </c>
-      <c r="E117" s="40"/>
-      <c r="F117" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="G117" s="44"/>
-      <c r="H117" s="44"/>
-      <c r="I117" s="44"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="44"/>
-      <c r="L117" s="44"/>
-      <c r="M117" s="44"/>
-      <c r="N117" s="44"/>
-      <c r="O117" s="44"/>
-      <c r="P117" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q117" s="58"/>
-      <c r="R117" s="29"/>
-      <c r="S117" s="29"/>
-      <c r="T117" s="60"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
     </row>
     <row r="118" spans="2:20">
       <c r="B118" s="2"/>
@@ -4557,68 +4536,67 @@
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
     </row>
-    <row r="119" spans="2:20">
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+    <row r="119" spans="4:4">
       <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
-    </row>
-    <row r="120" spans="4:4">
-      <c r="D120" s="2"/>
+    </row>
+    <row r="120" spans="2:20">
+      <c r="B120" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="7">
+        <v>1</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="G120" s="99"/>
+      <c r="H120" s="99"/>
+      <c r="I120" s="99"/>
+      <c r="J120" s="99"/>
+      <c r="K120" s="99"/>
+      <c r="L120" s="100"/>
+      <c r="M120" s="100"/>
+      <c r="N120" s="100"/>
+      <c r="O120" s="100"/>
+      <c r="P120" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q120" s="8"/>
+      <c r="R120" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="S120" s="8"/>
+      <c r="T120" s="32"/>
     </row>
     <row r="121" spans="2:20">
-      <c r="B121" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="7">
-        <v>1</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F121" s="104" t="s">
+      <c r="B121" s="12"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="12">
+        <v>2</v>
+      </c>
+      <c r="E121" s="12"/>
+      <c r="F121" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="G121" s="101"/>
-      <c r="H121" s="101"/>
-      <c r="I121" s="101"/>
-      <c r="J121" s="101"/>
-      <c r="K121" s="101"/>
-      <c r="L121" s="102"/>
-      <c r="M121" s="102"/>
-      <c r="N121" s="102"/>
-      <c r="O121" s="102"/>
-      <c r="P121" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q121" s="8"/>
-      <c r="R121" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="S121" s="8"/>
-      <c r="T121" s="32"/>
+      <c r="L121" s="43"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="33"/>
+      <c r="Q121" s="15"/>
+      <c r="R121" s="35"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="36"/>
     </row>
     <row r="122" spans="2:20">
       <c r="B122" s="12"/>
       <c r="C122" s="19"/>
       <c r="D122" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="50" t="s">
@@ -4628,61 +4606,49 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-      <c r="P122" s="33"/>
-      <c r="Q122" s="15"/>
-      <c r="R122" s="35"/>
+      <c r="P122" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q122" s="29"/>
+      <c r="R122" s="40"/>
       <c r="S122" s="2"/>
       <c r="T122" s="36"/>
     </row>
     <row r="123" spans="2:20">
-      <c r="B123" s="12"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="12">
-        <v>3</v>
-      </c>
-      <c r="E123" s="12"/>
-      <c r="F123" s="50" t="s">
+      <c r="B123" s="31"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="31">
+        <v>4</v>
+      </c>
+      <c r="E123" s="31"/>
+      <c r="F123" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="L123" s="43"/>
-      <c r="M123" s="3"/>
-      <c r="N123" s="3"/>
-      <c r="O123" s="3"/>
-      <c r="P123" s="40" t="s">
-        <v>21</v>
-      </c>
+      <c r="G123" s="73"/>
+      <c r="H123" s="73"/>
+      <c r="I123" s="73"/>
+      <c r="J123" s="73"/>
+      <c r="K123" s="73"/>
+      <c r="L123" s="44"/>
+      <c r="M123" s="44"/>
+      <c r="N123" s="44"/>
+      <c r="O123" s="44"/>
+      <c r="P123" s="40"/>
       <c r="Q123" s="29"/>
       <c r="R123" s="40"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="36"/>
-    </row>
-    <row r="124" spans="2:20">
-      <c r="B124" s="31"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="31">
-        <v>4</v>
-      </c>
-      <c r="E124" s="31"/>
-      <c r="F124" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="G124" s="73"/>
-      <c r="H124" s="73"/>
-      <c r="I124" s="73"/>
-      <c r="J124" s="73"/>
-      <c r="K124" s="73"/>
-      <c r="L124" s="44"/>
-      <c r="M124" s="44"/>
-      <c r="N124" s="44"/>
-      <c r="O124" s="44"/>
-      <c r="P124" s="40"/>
-      <c r="Q124" s="29"/>
-      <c r="R124" s="40"/>
-      <c r="S124" s="29"/>
-      <c r="T124" s="60"/>
+      <c r="S123" s="29"/>
+      <c r="T123" s="60"/>
+    </row>
+    <row r="128" spans="6:11">
+      <c r="F128" s="104"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="43"/>
+      <c r="J128" s="43"/>
+      <c r="K128" s="43"/>
     </row>
     <row r="129" spans="6:11">
-      <c r="F129" s="123"/>
+      <c r="F129" s="104"/>
       <c r="G129" s="43"/>
       <c r="H129" s="43"/>
       <c r="I129" s="43"/>
@@ -4690,7 +4656,7 @@
       <c r="K129" s="43"/>
     </row>
     <row r="130" spans="6:11">
-      <c r="F130" s="123"/>
+      <c r="F130" s="104"/>
       <c r="G130" s="43"/>
       <c r="H130" s="43"/>
       <c r="I130" s="43"/>
@@ -4698,23 +4664,15 @@
       <c r="K130" s="43"/>
     </row>
     <row r="131" spans="6:11">
-      <c r="F131" s="123"/>
+      <c r="F131" s="104"/>
       <c r="G131" s="43"/>
       <c r="H131" s="43"/>
       <c r="I131" s="43"/>
       <c r="J131" s="43"/>
       <c r="K131" s="43"/>
     </row>
-    <row r="132" spans="6:11">
-      <c r="F132" s="123"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="43"/>
-      <c r="K132" s="43"/>
-    </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="77">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="P16:Q16"/>
@@ -4735,7 +4693,6 @@
     <mergeCell ref="R101:T101"/>
     <mergeCell ref="P104:Q104"/>
     <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="P117:Q117"/>
     <mergeCell ref="D102:D103"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E23:E25"/>
@@ -4749,10 +4706,9 @@
     <mergeCell ref="E83:E97"/>
     <mergeCell ref="E101:E104"/>
     <mergeCell ref="E108:E110"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="E120:E123"/>
     <mergeCell ref="B108:C110"/>
-    <mergeCell ref="B121:C124"/>
     <mergeCell ref="P46:Q49"/>
     <mergeCell ref="P66:Q69"/>
     <mergeCell ref="B17:C36"/>
@@ -4787,12 +4743,13 @@
     <mergeCell ref="R102:T104"/>
     <mergeCell ref="P109:Q110"/>
     <mergeCell ref="R108:T110"/>
+    <mergeCell ref="B114:C116"/>
     <mergeCell ref="P114:Q116"/>
-    <mergeCell ref="B114:C117"/>
-    <mergeCell ref="R114:T117"/>
-    <mergeCell ref="P121:Q122"/>
-    <mergeCell ref="P123:Q124"/>
-    <mergeCell ref="R121:T124"/>
+    <mergeCell ref="B120:C123"/>
+    <mergeCell ref="R114:T116"/>
+    <mergeCell ref="P120:Q121"/>
+    <mergeCell ref="P122:Q123"/>
+    <mergeCell ref="R120:T123"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/仕様書/作業スケジュール_PG.xlsx
+++ b/仕様書/作業スケジュール_PG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>8月27日まで完成させる</t>
   </si>
@@ -145,10 +145,10 @@
     <t>風のオーラをまとっていたら専用の攻撃をする</t>
   </si>
   <si>
-    <t>主人公が敵に触れるとライフが減り主人公が点滅しその間は無敵状態になる</t>
-  </si>
-  <si>
-    <t>点滅したときに主人公はノックバックする</t>
+    <t>主人公が敵に触れるとライフが減り主人公が点滅（アルファブレンド）しその間は無敵状態になる</t>
+  </si>
+  <si>
+    <t>点滅（アルファブレンド）したときに主人公はノックバックする</t>
   </si>
   <si>
     <t>ライフが０になったらゲームオーバー</t>
@@ -169,7 +169,9 @@
     <t>本マップができてから</t>
   </si>
   <si>
-    <t>竹村</t>
+    <t>竹村　　　
+＆　　　　
+山本</t>
   </si>
   <si>
     <t>敵から前８マス分目に主人公が入ると敵は主人公に向かってい移動する</t>
@@ -196,7 +198,9 @@
     <t>スライムの場合は8マスまで近づいた後さらに主人公との間隔が３マスになるまで移動する</t>
   </si>
   <si>
-    <t>田中</t>
+    <t>田中
+＆
+水瀧</t>
   </si>
   <si>
     <t>各敵の決められた範囲に主人公が入ると敵が攻撃を行う</t>
@@ -214,10 +218,10 @@
     <t>スライムの場合はジャンプ攻撃をしてくる</t>
   </si>
   <si>
-    <t>主人公がまとっているオーラが敵と同じでそのオーラの攻撃が敵に当たったら点滅する</t>
-  </si>
-  <si>
-    <t>点滅してからギミックを発動させる爆弾になる</t>
+    <t>主人公がまとっているオーラが敵と同じでそのオーラの攻撃が敵に当たったら点滅（アルファブレンド）する</t>
+  </si>
+  <si>
+    <t>点滅（アルファブレンド）してからギミックを発動させる爆弾になる</t>
   </si>
   <si>
     <t>爆弾の色はプランナーからの指示通りの色を配置すること</t>
@@ -229,7 +233,9 @@
     <t>ギミック担当</t>
   </si>
   <si>
-    <t>水瀧</t>
+    <t>水瀧
+＆
+田中</t>
   </si>
   <si>
     <t>火の第一派生</t>
@@ -238,58 +244,44 @@
     <t>爆発の描画を６×６の範囲でする</t>
   </si>
   <si>
+    <t>6日</t>
+  </si>
+  <si>
+    <t>敵が点滅（アルファブレンド）してから４秒後に爆発のアニメーションをつける</t>
+  </si>
+  <si>
+    <t>もしその範囲内に爆発で壊れるブロック、敵が存在していたら全て消滅させる</t>
+  </si>
+  <si>
+    <t>第二派生</t>
+  </si>
+  <si>
+    <t>火→氷</t>
+  </si>
+  <si>
+    <t>描画れてる氷のサイズが6×6になる</t>
+  </si>
+  <si>
+    <t>他は第一派生と同じ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山本
+＆
+竹村
+＆
+柴田(余裕があれば)
+</t>
+  </si>
+  <si>
+    <t>氷の第一派生</t>
+  </si>
+  <si>
+    <t>敵が点滅（アルファブレンド）してから４秒後に２×３のサイズの氷を描画する</t>
+  </si>
+  <si>
     <t>5日</t>
   </si>
   <si>
-    <t>敵が点滅してから４秒後に爆発のアニメーションをつける</t>
-  </si>
-  <si>
-    <t>もしその範囲内に爆発で壊れるブロック、敵が存在していたら全て消滅させる</t>
-  </si>
-  <si>
-    <t>第二派生</t>
-  </si>
-  <si>
-    <t>氷→火</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好きな方から取り掛かってくれてかまいません
-</t>
-  </si>
-  <si>
-    <t>敵が点滅してから４秒後に吹雪（未確定）のアニメーションを1秒だけつける</t>
-  </si>
-  <si>
-    <t>もし吹雪アニメーションをしている間、画面に敵がいたらチップサイズの氷になる</t>
-  </si>
-  <si>
-    <t>その氷は4秒後消える</t>
-  </si>
-  <si>
-    <t>風→火</t>
-  </si>
-  <si>
-    <t>風の処理と基本同じなので大ジャンプ以外は省略します</t>
-  </si>
-  <si>
-    <t>主人公が竜巻のあたり判定内にいたら強制的に中央に行きその後すぐに大ジャンプをする</t>
-  </si>
-  <si>
-    <t>大ジャンプの高さは8とする(チップサイズの問題で変更になる可能性あり）</t>
-  </si>
-  <si>
-    <t>山本</t>
-  </si>
-  <si>
-    <t>氷の第一派生</t>
-  </si>
-  <si>
-    <t>敵が点滅してから４秒後に２×３のサイズの氷を描画する</t>
-  </si>
-  <si>
-    <t>6日</t>
-  </si>
-  <si>
     <t>2×３の氷を描画する際に描画範囲に他のブロックがある場合その部分だけは描画しないようにする</t>
   </si>
   <si>
@@ -302,13 +294,40 @@
     <t>氷ブロックは描画してから７秒で消える</t>
   </si>
   <si>
-    <t>火→氷</t>
-  </si>
-  <si>
-    <t>描画される氷のサイズが6×６になる</t>
-  </si>
-  <si>
-    <t>他は第一派生と同じ</t>
+    <t>氷→風</t>
+  </si>
+  <si>
+    <t>描画される氷のサイズが4×4になる</t>
+  </si>
+  <si>
+    <t>消える時間は第一派生と同じで7秒</t>
+  </si>
+  <si>
+    <t>描画された氷は（攻撃した方向）にブロックがない限り永遠に進み続ける()内、要相談</t>
+  </si>
+  <si>
+    <t>進む速度は主人公のダッシュの速度の*1.1</t>
+  </si>
+  <si>
+    <t>氷が進んでいる間に氷のあたり判定内に敵が入ればその敵はのけぞり状態になり消滅する</t>
+  </si>
+  <si>
+    <t>柴田　</t>
+  </si>
+  <si>
+    <t>風の第一派生</t>
+  </si>
+  <si>
+    <t>竜巻の描画を６×６の範囲でする</t>
+  </si>
+  <si>
+    <t>敵が点滅（アルファブレンド）してから４秒後に竜巻を描画しまわっているようなアニメーションをつける</t>
+  </si>
+  <si>
+    <t>竜巻の発生してる状態で敵が竜巻の当たり判定内に入ったら進行方向とは逆の方向に４マス戻す</t>
+  </si>
+  <si>
+    <t>さらに竜巻の効果範囲内に風で動くブロックがあれば右、左、上、下の優先順位で動かす</t>
   </si>
   <si>
     <t>風→氷</t>
@@ -317,48 +336,6 @@
     <t>氷ブロックを描画してから7秒で消えるのを10秒にする</t>
   </si>
   <si>
-    <t>柴田　</t>
-  </si>
-  <si>
-    <t>風の第一派生</t>
-  </si>
-  <si>
-    <t>竜巻の描画を６×６の範囲でする</t>
-  </si>
-  <si>
-    <t>敵が点滅してから４秒後に竜巻を描画しまわっているようなアニメーションをつける</t>
-  </si>
-  <si>
-    <t>竜巻の発生してる状態で敵が竜巻の当たり判定内に入ったら進行方向とは逆の方向に４マス戻す</t>
-  </si>
-  <si>
-    <t>さらに竜巻の効果範囲内に風で動くブロックがあれば右、左、上、下の優先順位で動かす</t>
-  </si>
-  <si>
-    <t>火→風</t>
-  </si>
-  <si>
-    <t>竜巻の描画するサイズを8×8にする</t>
-  </si>
-  <si>
-    <t>氷→風</t>
-  </si>
-  <si>
-    <t>敵が点滅してから4秒後に4×4のサイズの氷を描画する</t>
-  </si>
-  <si>
-    <t>描画された氷は（攻撃した方向）にブロックがない限り永遠に進み続ける()内、要相談</t>
-  </si>
-  <si>
-    <t>進む速度は主人公のダッシュの速度の*1.1</t>
-  </si>
-  <si>
-    <t>氷が進んでいる間に氷のあたり判定内に敵が入ればその敵はのけぞり状態になり消滅する</t>
-  </si>
-  <si>
-    <t>描画後の氷は何があっても7秒後に消える</t>
-  </si>
-  <si>
     <t>マップ</t>
   </si>
   <si>
@@ -384,6 +361,10 @@
   </si>
   <si>
     <t>タイトルの作成してあるボタンが押されたらゲームスタートさせる</t>
+  </si>
+  <si>
+    <t>8月8日～8月27日
+できれば8月23日からしたい</t>
   </si>
   <si>
     <t>ゲームがクリア又は、ゲームオーバーになったら専用の画面にする</t>
@@ -424,12 +405,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -451,6 +439,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -467,18 +507,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -487,51 +520,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,15 +545,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -580,27 +561,53 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -616,7 +623,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +653,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,55 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,13 +743,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,25 +773,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,31 +797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,9 +965,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -973,9 +978,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1012,9 +1015,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1033,11 +1034,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,19 +1066,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1095,23 +1102,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,149 +1124,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1375,7 +1376,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1392,6 +1393,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1410,10 +1414,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1425,16 +1432,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1497,142 +1510,187 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1953,10 +2011,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:U131"/>
+  <dimension ref="B1:U120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1416666666667" defaultRowHeight="14.25"/>
@@ -1992,8 +2050,8 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="5:17">
       <c r="E6" s="3" t="s">
@@ -2001,8 +2059,8 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
     </row>
     <row r="7" spans="5:17">
       <c r="E7" s="3" t="s">
@@ -2010,8 +2068,8 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
     </row>
     <row r="8" spans="5:17">
       <c r="E8" s="3" t="s">
@@ -2019,8 +2077,8 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
     </row>
     <row r="9" spans="5:17">
       <c r="E9" s="3" t="s">
@@ -2028,8 +2086,8 @@
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
     </row>
     <row r="10" spans="5:17">
       <c r="E10" s="3" t="s">
@@ -2037,8 +2095,8 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
     </row>
     <row r="11" spans="5:17">
       <c r="E11" s="3" t="s">
@@ -2046,8 +2104,8 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="55"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="59"/>
     </row>
     <row r="12" spans="5:17">
       <c r="E12" s="3" t="s">
@@ -2055,8 +2113,8 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
     </row>
     <row r="13" spans="5:17">
       <c r="E13" s="3" t="s">
@@ -2065,8 +2123,8 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="I13" s="5"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
     </row>
     <row r="14" spans="5:17">
       <c r="E14" s="3"/>
@@ -2074,8 +2132,8 @@
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
     </row>
     <row r="15" spans="6:6">
       <c r="F15" s="5"/>
@@ -2100,7 +2158,7 @@
         <v>13</v>
       </c>
       <c r="S16" s="15"/>
-      <c r="T16" s="58"/>
+      <c r="T16" s="62"/>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="7" t="s">
@@ -2124,16 +2182,16 @@
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58" t="s">
+      <c r="O17" s="61"/>
+      <c r="P17" s="62" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="13"/>
-      <c r="R17" s="83" t="s">
+      <c r="R17" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="S17" s="84"/>
-      <c r="T17" s="85"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="93"/>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="12"/>
@@ -2155,14 +2213,14 @@
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="60" t="s">
+      <c r="O18" s="63"/>
+      <c r="P18" s="64" t="s">
         <v>21</v>
       </c>
       <c r="Q18" s="13"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="88"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="96"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="12"/>
@@ -2184,14 +2242,14 @@
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="58" t="s">
+      <c r="O19" s="65"/>
+      <c r="P19" s="62" t="s">
         <v>21</v>
       </c>
       <c r="Q19" s="13"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="88"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="96"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="12"/>
@@ -2213,14 +2271,14 @@
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="58" t="s">
+      <c r="O20" s="61"/>
+      <c r="P20" s="62" t="s">
         <v>24</v>
       </c>
       <c r="Q20" s="13"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="88"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="96"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="12"/>
@@ -2240,12 +2298,12 @@
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="58"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="62"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="88"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="96"/>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="12"/>
@@ -2265,12 +2323,12 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="58"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="62"/>
       <c r="Q22" s="13"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="88"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="96"/>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="12"/>
@@ -2289,17 +2347,17 @@
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="63"/>
+      <c r="L23" s="67"/>
       <c r="M23" s="21"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="58" t="s">
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="62" t="s">
         <v>28</v>
       </c>
       <c r="Q23" s="13"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="88"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="96"/>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="12"/>
@@ -2316,15 +2374,15 @@
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="63"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="21"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="58"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="62"/>
       <c r="Q24" s="13"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="88"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="96"/>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" s="12"/>
@@ -2344,12 +2402,12 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="58"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="62"/>
       <c r="Q25" s="13"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="88"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="96"/>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="12"/>
@@ -2367,18 +2425,18 @@
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="60" t="s">
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="64" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="13"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="88"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="96"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="12"/>
@@ -2396,16 +2454,16 @@
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="58" t="s">
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="62" t="s">
         <v>28</v>
       </c>
       <c r="Q27" s="13"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="88"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="96"/>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="12"/>
@@ -2419,20 +2477,20 @@
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="58" t="s">
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="62" t="s">
         <v>35</v>
       </c>
       <c r="Q28" s="13"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="88"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="96"/>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="12"/>
@@ -2450,14 +2508,14 @@
       <c r="J29" s="26"/>
       <c r="K29" s="26"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="58"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="62"/>
       <c r="Q29" s="13"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="88"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="96"/>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="12"/>
@@ -2477,16 +2535,16 @@
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="58" t="s">
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="62" t="s">
         <v>38</v>
       </c>
       <c r="Q30" s="13"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="91"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="99"/>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="12"/>
@@ -2504,12 +2562,12 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="58" t="s">
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="62" t="s">
         <v>35</v>
       </c>
       <c r="Q31" s="13"/>
@@ -2517,7 +2575,7 @@
         <v>40</v>
       </c>
       <c r="S31" s="2"/>
-      <c r="T31" s="36"/>
+      <c r="T31" s="100"/>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="12"/>
@@ -2533,16 +2591,16 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="58"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="62"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="12"/>
       <c r="S32" s="2"/>
-      <c r="T32" s="36"/>
+      <c r="T32" s="100"/>
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="12"/>
@@ -2558,16 +2616,16 @@
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="58"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="62"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="12"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="36"/>
+      <c r="T33" s="100"/>
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="12"/>
@@ -2586,15 +2644,15 @@
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="58" t="s">
+      <c r="N34" s="67"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="62" t="s">
         <v>32</v>
       </c>
       <c r="Q34" s="13"/>
       <c r="R34" s="12"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="36"/>
+      <c r="T34" s="100"/>
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="12"/>
@@ -2609,17 +2667,17 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="58"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="62"/>
       <c r="Q35" s="13"/>
       <c r="R35" s="12"/>
       <c r="S35" s="2"/>
-      <c r="T35" s="36"/>
+      <c r="T35" s="100"/>
     </row>
     <row r="36" spans="2:20">
       <c r="B36" s="31"/>
@@ -2634,19 +2692,19 @@
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="69"/>
+      <c r="J36" s="73"/>
       <c r="K36" s="26"/>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
       <c r="N36" s="26"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="58" t="s">
+      <c r="O36" s="66"/>
+      <c r="P36" s="62" t="s">
         <v>46</v>
       </c>
       <c r="Q36" s="13"/>
       <c r="R36" s="31"/>
       <c r="S36" s="29"/>
-      <c r="T36" s="60"/>
+      <c r="T36" s="64"/>
     </row>
     <row r="37" spans="6:19">
       <c r="F37" s="1"/>
@@ -2699,15 +2757,15 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
       <c r="J40" s="34"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="13" t="s">
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q40" s="58"/>
+      <c r="Q40" s="32"/>
       <c r="R40" s="8" t="s">
         <v>50</v>
       </c>
@@ -2732,15 +2790,15 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="P41" s="12" t="s">
+      <c r="P41" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="83" t="s">
+      <c r="Q41" s="101"/>
+      <c r="R41" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="S41" s="84"/>
-      <c r="T41" s="85"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="93"/>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="12"/>
@@ -2758,16 +2816,16 @@
       <c r="J42" s="38"/>
       <c r="K42" s="38"/>
       <c r="L42" s="38"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
       <c r="P42" s="12" t="s">
         <v>56</v>
       </c>
       <c r="Q42" s="2"/>
-      <c r="R42" s="86"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="88"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="96"/>
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="12"/>
@@ -2787,9 +2845,9 @@
       <c r="L43" s="1"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="88"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="96"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="12"/>
@@ -2809,9 +2867,9 @@
       <c r="L44" s="1"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="86"/>
-      <c r="S44" s="87"/>
-      <c r="T44" s="88"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="96"/>
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="12"/>
@@ -2829,14 +2887,14 @@
       <c r="J45" s="41"/>
       <c r="K45" s="41"/>
       <c r="L45" s="41"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="88"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="102"/>
+      <c r="T45" s="96"/>
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="12"/>
@@ -2844,30 +2902,30 @@
       <c r="D46" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F46" s="42" t="s">
+      <c r="F46" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="76"/>
       <c r="P46" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q46" s="8"/>
-      <c r="R46" s="83" t="s">
+      <c r="R46" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="S46" s="84"/>
-      <c r="T46" s="85"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="93"/>
     </row>
     <row r="47" spans="2:20">
       <c r="B47" s="12"/>
@@ -2876,23 +2934,23 @@
         <v>1</v>
       </c>
       <c r="E47" s="39"/>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="19"/>
-      <c r="R47" s="86"/>
-      <c r="S47" s="87"/>
-      <c r="T47" s="88"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="96"/>
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="12"/>
@@ -2901,23 +2959,23 @@
         <v>3</v>
       </c>
       <c r="E48" s="39"/>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="45"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="46"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="19"/>
-      <c r="R48" s="86"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="88"/>
+      <c r="R48" s="94"/>
+      <c r="S48" s="95"/>
+      <c r="T48" s="96"/>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="12"/>
@@ -2926,23 +2984,23 @@
         <v>2</v>
       </c>
       <c r="E49" s="40"/>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="73"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="77"/>
       <c r="P49" s="31"/>
       <c r="Q49" s="29"/>
-      <c r="R49" s="89"/>
-      <c r="S49" s="90"/>
-      <c r="T49" s="91"/>
+      <c r="R49" s="97"/>
+      <c r="S49" s="98"/>
+      <c r="T49" s="99"/>
     </row>
     <row r="50" spans="2:20">
       <c r="B50" s="12"/>
@@ -2953,18 +3011,18 @@
       <c r="E50" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="74"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="78"/>
       <c r="P50" s="19" t="s">
         <v>35</v>
       </c>
@@ -2973,7 +3031,7 @@
         <v>40</v>
       </c>
       <c r="S50" s="19"/>
-      <c r="T50" s="36"/>
+      <c r="T50" s="100"/>
     </row>
     <row r="51" spans="2:20">
       <c r="B51" s="12"/>
@@ -2989,12 +3047,12 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="O51" s="74"/>
+      <c r="O51" s="78"/>
       <c r="P51" s="19"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="12"/>
       <c r="S51" s="2"/>
-      <c r="T51" s="36"/>
+      <c r="T51" s="100"/>
     </row>
     <row r="52" spans="2:20">
       <c r="B52" s="31"/>
@@ -3003,23 +3061,23 @@
         <v>1</v>
       </c>
       <c r="E52" s="40"/>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="44"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="75"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="79"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
       <c r="R52" s="31"/>
       <c r="S52" s="29"/>
-      <c r="T52" s="60"/>
+      <c r="T52" s="64"/>
     </row>
     <row r="53" spans="2:20">
       <c r="B53" s="2"/>
@@ -3084,21 +3142,21 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" ht="15" spans="4:19">
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="46" t="s">
+    <row r="56" spans="4:19">
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="47"/>
-      <c r="K56" s="47"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="76"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="80"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -3112,23 +3170,23 @@
       <c r="D57" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="48" t="s">
+      <c r="F57" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="77"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="79"/>
-      <c r="Q57" s="79"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="81"/>
+      <c r="P57" s="82"/>
+      <c r="Q57" s="82"/>
       <c r="R57" s="7" t="s">
         <v>40</v>
       </c>
@@ -3138,29 +3196,29 @@
     <row r="58" spans="2:21">
       <c r="B58" s="12"/>
       <c r="C58" s="19"/>
-      <c r="D58" s="35">
+      <c r="D58" s="39">
         <v>1</v>
       </c>
       <c r="E58" s="19"/>
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="74"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="78"/>
       <c r="P58" s="2" t="s">
         <v>74</v>
       </c>
       <c r="Q58" s="19"/>
       <c r="R58" s="12"/>
       <c r="S58" s="2"/>
-      <c r="T58" s="36"/>
+      <c r="T58" s="100"/>
       <c r="U58" s="3"/>
     </row>
     <row r="59" spans="2:20">
@@ -3170,23 +3228,23 @@
         <v>3</v>
       </c>
       <c r="E59" s="19"/>
-      <c r="F59" s="50" t="s">
+      <c r="F59" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="74"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="78"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="12"/>
       <c r="S59" s="2"/>
-      <c r="T59" s="36"/>
+      <c r="T59" s="100"/>
     </row>
     <row r="60" spans="2:20">
       <c r="B60" s="12"/>
@@ -3195,23 +3253,23 @@
         <v>2</v>
       </c>
       <c r="E60" s="19"/>
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="G60" s="45"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="74"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="78"/>
       <c r="P60" s="29"/>
       <c r="Q60" s="29"/>
       <c r="R60" s="12"/>
       <c r="S60" s="2"/>
-      <c r="T60" s="36"/>
+      <c r="T60" s="100"/>
     </row>
     <row r="61" spans="2:20">
       <c r="B61" s="12"/>
@@ -3220,23 +3278,23 @@
         <v>54</v>
       </c>
       <c r="E61" s="19"/>
-      <c r="F61" s="51" t="s">
+      <c r="F61" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="76"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="84"/>
+      <c r="Q61" s="84"/>
       <c r="R61" s="12"/>
       <c r="S61" s="2"/>
-      <c r="T61" s="36"/>
+      <c r="T61" s="100"/>
     </row>
     <row r="62" spans="2:20">
       <c r="B62" s="12"/>
@@ -3245,1434 +3303,1134 @@
         <v>54</v>
       </c>
       <c r="E62" s="19"/>
-      <c r="F62" s="53" t="s">
+      <c r="F62" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="O62" s="32"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="85"/>
+      <c r="O62" s="86"/>
       <c r="P62" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q62" s="8"/>
       <c r="R62" s="12"/>
       <c r="S62" s="2"/>
-      <c r="T62" s="36"/>
+      <c r="T62" s="100"/>
     </row>
     <row r="63" spans="2:20">
       <c r="B63" s="12"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="39">
+      <c r="D63" s="57">
         <v>4</v>
       </c>
       <c r="E63" s="19"/>
-      <c r="F63" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="45"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="36"/>
+      <c r="F63" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="87"/>
+      <c r="O63" s="88"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="19"/>
       <c r="R63" s="12"/>
       <c r="S63" s="2"/>
-      <c r="T63" s="36"/>
+      <c r="T63" s="100"/>
     </row>
     <row r="64" spans="2:20">
       <c r="B64" s="12"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="39">
-        <v>5</v>
-      </c>
+      <c r="D64" s="58"/>
       <c r="E64" s="19"/>
-      <c r="F64" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="36"/>
+      <c r="F64" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="90"/>
+      <c r="O64" s="88"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="19"/>
       <c r="R64" s="12"/>
       <c r="S64" s="2"/>
-      <c r="T64" s="36"/>
+      <c r="T64" s="100"/>
     </row>
     <row r="65" spans="2:20">
       <c r="B65" s="12"/>
       <c r="C65" s="19"/>
-      <c r="D65" s="39">
-        <v>6</v>
-      </c>
-      <c r="E65" s="19"/>
-      <c r="F65" s="50" t="s">
+      <c r="D65" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F65" s="103" t="s">
         <v>82</v>
       </c>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="45"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82"/>
+      <c r="I65" s="82"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="81"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="110"/>
       <c r="R65" s="12"/>
       <c r="S65" s="2"/>
-      <c r="T65" s="36"/>
+      <c r="T65" s="100"/>
     </row>
     <row r="66" spans="2:20">
       <c r="B66" s="12"/>
       <c r="C66" s="19"/>
-      <c r="D66" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E66" s="8"/>
-      <c r="F66" s="93" t="s">
+      <c r="D66" s="39">
+        <v>1</v>
+      </c>
+      <c r="E66" s="100"/>
+      <c r="F66" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="72"/>
-      <c r="J66" s="72"/>
-      <c r="K66" s="72"/>
-      <c r="L66" s="72"/>
-      <c r="M66" s="72"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="36"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="78"/>
       <c r="P66" s="2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="Q66" s="19"/>
       <c r="R66" s="12"/>
       <c r="S66" s="2"/>
-      <c r="T66" s="36"/>
+      <c r="T66" s="100"/>
     </row>
     <row r="67" spans="2:20">
       <c r="B67" s="12"/>
       <c r="C67" s="19"/>
-      <c r="D67" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="36"/>
+      <c r="D67" s="39">
+        <v>5</v>
+      </c>
+      <c r="E67" s="100"/>
+      <c r="F67" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="78"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="19"/>
       <c r="R67" s="12"/>
       <c r="S67" s="2"/>
-      <c r="T67" s="36"/>
+      <c r="T67" s="100"/>
     </row>
     <row r="68" spans="2:20">
       <c r="B68" s="12"/>
       <c r="C68" s="19"/>
       <c r="D68" s="39">
-        <v>4</v>
-      </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="45"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="36"/>
+        <v>2</v>
+      </c>
+      <c r="E68" s="100"/>
+      <c r="F68" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="78"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="19"/>
       <c r="R68" s="12"/>
       <c r="S68" s="2"/>
-      <c r="T68" s="36"/>
+      <c r="T68" s="100"/>
     </row>
     <row r="69" spans="2:20">
       <c r="B69" s="12"/>
       <c r="C69" s="19"/>
-      <c r="D69" s="40">
-        <v>5</v>
-      </c>
-      <c r="E69" s="19"/>
-      <c r="F69" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="60"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
+      <c r="D69" s="39">
+        <v>3</v>
+      </c>
+      <c r="E69" s="100"/>
+      <c r="F69" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="78"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="19"/>
       <c r="R69" s="12"/>
       <c r="S69" s="2"/>
-      <c r="T69" s="36"/>
+      <c r="T69" s="100"/>
     </row>
     <row r="70" spans="2:20">
       <c r="B70" s="12"/>
       <c r="C70" s="19"/>
-      <c r="D70" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F70" s="94" t="s">
+      <c r="D70" s="39">
+        <v>4</v>
+      </c>
+      <c r="E70" s="100"/>
+      <c r="F70" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="77"/>
-      <c r="O70" s="78"/>
-      <c r="P70" s="77"/>
-      <c r="Q70" s="77"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="122"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
       <c r="R70" s="12"/>
       <c r="S70" s="2"/>
-      <c r="T70" s="36"/>
+      <c r="T70" s="100"/>
     </row>
     <row r="71" spans="2:20">
       <c r="B71" s="12"/>
       <c r="C71" s="19"/>
-      <c r="D71" s="39">
-        <v>1</v>
-      </c>
-      <c r="E71" s="36"/>
-      <c r="F71" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="45"/>
-      <c r="O71" s="74"/>
-      <c r="P71" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q71" s="19"/>
+      <c r="D71" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="19"/>
+      <c r="F71" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="123"/>
+      <c r="P71" s="124"/>
+      <c r="Q71" s="124"/>
       <c r="R71" s="12"/>
       <c r="S71" s="2"/>
-      <c r="T71" s="36"/>
+      <c r="T71" s="100"/>
     </row>
     <row r="72" spans="2:20">
       <c r="B72" s="12"/>
       <c r="C72" s="19"/>
-      <c r="D72" s="39">
-        <v>5</v>
-      </c>
-      <c r="E72" s="36"/>
-      <c r="F72" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" s="45"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="45"/>
-      <c r="L72" s="45"/>
-      <c r="M72" s="45"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="74"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="19"/>
+      <c r="D72" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="100"/>
+      <c r="F72" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" s="104"/>
+      <c r="H72" s="104"/>
+      <c r="I72" s="104"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="104"/>
+      <c r="L72" s="104"/>
+      <c r="M72" s="104"/>
+      <c r="N72" s="125"/>
+      <c r="O72" s="126"/>
+      <c r="P72" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q72" s="8"/>
       <c r="R72" s="12"/>
       <c r="S72" s="2"/>
-      <c r="T72" s="36"/>
+      <c r="T72" s="100"/>
     </row>
     <row r="73" spans="2:20">
       <c r="B73" s="12"/>
       <c r="C73" s="19"/>
       <c r="D73" s="39">
-        <v>2</v>
-      </c>
-      <c r="E73" s="36"/>
-      <c r="F73" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="G73" s="45"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
-      <c r="O73" s="74"/>
+        <v>6</v>
+      </c>
+      <c r="E73" s="100"/>
+      <c r="F73" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" s="106"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="106"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="90"/>
+      <c r="O73" s="128"/>
       <c r="P73" s="2"/>
-      <c r="Q73" s="19"/>
+      <c r="Q73" s="139"/>
       <c r="R73" s="12"/>
       <c r="S73" s="2"/>
-      <c r="T73" s="36"/>
+      <c r="T73" s="100"/>
     </row>
     <row r="74" spans="2:20">
       <c r="B74" s="12"/>
       <c r="C74" s="19"/>
       <c r="D74" s="39">
-        <v>3</v>
-      </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G74" s="45"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="45"/>
-      <c r="M74" s="45"/>
-      <c r="N74" s="45"/>
-      <c r="O74" s="74"/>
+        <v>4</v>
+      </c>
+      <c r="E74" s="100"/>
+      <c r="F74" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="106"/>
+      <c r="H74" s="106"/>
+      <c r="I74" s="106"/>
+      <c r="N74" s="90"/>
+      <c r="O74" s="128"/>
       <c r="P74" s="2"/>
-      <c r="Q74" s="19"/>
+      <c r="Q74" s="139"/>
       <c r="R74" s="12"/>
       <c r="S74" s="2"/>
-      <c r="T74" s="36"/>
+      <c r="T74" s="100"/>
     </row>
     <row r="75" spans="2:20">
       <c r="B75" s="12"/>
       <c r="C75" s="19"/>
       <c r="D75" s="39">
-        <v>4</v>
-      </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="45"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
-      <c r="L75" s="45"/>
-      <c r="M75" s="45"/>
-      <c r="N75" s="45"/>
-      <c r="O75" s="105"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
+        <v>7</v>
+      </c>
+      <c r="E75" s="100"/>
+      <c r="F75" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="G75" s="106"/>
+      <c r="H75" s="106"/>
+      <c r="I75" s="106"/>
+      <c r="J75" s="106"/>
+      <c r="K75" s="106"/>
+      <c r="L75" s="106"/>
+      <c r="M75" s="106"/>
+      <c r="N75" s="129"/>
+      <c r="O75" s="130"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="139"/>
       <c r="R75" s="12"/>
       <c r="S75" s="2"/>
-      <c r="T75" s="36"/>
+      <c r="T75" s="100"/>
     </row>
     <row r="76" spans="2:20">
       <c r="B76" s="12"/>
       <c r="C76" s="19"/>
-      <c r="D76" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
-      <c r="N76" s="72"/>
-      <c r="O76" s="106"/>
-      <c r="P76" s="107"/>
-      <c r="Q76" s="107"/>
+      <c r="D76" s="39">
+        <v>9</v>
+      </c>
+      <c r="E76" s="100"/>
+      <c r="F76" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="129"/>
+      <c r="O76" s="130"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="139"/>
       <c r="R76" s="12"/>
       <c r="S76" s="2"/>
-      <c r="T76" s="36"/>
+      <c r="T76" s="100"/>
     </row>
     <row r="77" spans="2:20">
       <c r="B77" s="12"/>
       <c r="C77" s="19"/>
-      <c r="D77" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E77" s="36"/>
-      <c r="F77" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="G77" s="54"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="54"/>
-      <c r="L77" s="54"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="O77" s="108"/>
-      <c r="P77" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D77" s="40">
+        <v>8</v>
+      </c>
+      <c r="E77" s="100"/>
+      <c r="F77" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="131"/>
+      <c r="O77" s="132"/>
+      <c r="P77" s="2"/>
       <c r="Q77" s="19"/>
       <c r="R77" s="12"/>
       <c r="S77" s="2"/>
-      <c r="T77" s="36"/>
+      <c r="T77" s="100"/>
     </row>
     <row r="78" spans="2:20">
       <c r="B78" s="12"/>
       <c r="C78" s="19"/>
-      <c r="D78" s="39">
-        <v>6</v>
-      </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="45" t="s">
+      <c r="D78" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="107" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="109"/>
-      <c r="O78" s="110"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="19"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="54"/>
+      <c r="L78" s="54"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="110"/>
+      <c r="O78" s="123"/>
+      <c r="P78" s="54"/>
+      <c r="Q78" s="54"/>
       <c r="R78" s="12"/>
       <c r="S78" s="2"/>
-      <c r="T78" s="36"/>
+      <c r="T78" s="100"/>
     </row>
     <row r="79" spans="2:20">
       <c r="B79" s="12"/>
       <c r="C79" s="19"/>
-      <c r="D79" s="39">
-        <v>7</v>
-      </c>
-      <c r="E79" s="60"/>
-      <c r="F79" s="73" t="s">
+      <c r="D79" s="12">
+        <v>1</v>
+      </c>
+      <c r="E79" s="108"/>
+      <c r="F79" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="G79" s="73"/>
-      <c r="H79" s="73"/>
-      <c r="I79" s="73"/>
-      <c r="J79" s="73"/>
-      <c r="K79" s="73"/>
-      <c r="L79" s="73"/>
-      <c r="M79" s="73"/>
-      <c r="N79" s="109"/>
-      <c r="O79" s="110"/>
-      <c r="P79" s="2"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="78"/>
+      <c r="P79" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="Q79" s="19"/>
       <c r="R79" s="12"/>
       <c r="S79" s="2"/>
-      <c r="T79" s="36"/>
+      <c r="T79" s="100"/>
     </row>
     <row r="80" spans="2:20">
       <c r="B80" s="12"/>
       <c r="C80" s="19"/>
-      <c r="D80" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E80" s="36"/>
-      <c r="F80" s="54" t="s">
+      <c r="D80" s="12">
+        <v>2</v>
+      </c>
+      <c r="E80" s="108"/>
+      <c r="F80" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="G80" s="54"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="54"/>
-      <c r="J80" s="54"/>
-      <c r="K80" s="54"/>
-      <c r="L80" s="54"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="109"/>
-      <c r="O80" s="110"/>
-      <c r="P80" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q80" s="8"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="78"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="19"/>
       <c r="R80" s="12"/>
       <c r="S80" s="2"/>
-      <c r="T80" s="36"/>
+      <c r="T80" s="100"/>
     </row>
     <row r="81" spans="2:20">
       <c r="B81" s="12"/>
       <c r="C81" s="19"/>
-      <c r="D81" s="39">
-        <v>6</v>
-      </c>
-      <c r="E81" s="36"/>
-      <c r="F81" s="45" t="s">
+      <c r="D81" s="12">
+        <v>3</v>
+      </c>
+      <c r="E81" s="108"/>
+      <c r="F81" s="109" t="s">
         <v>99</v>
       </c>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="45"/>
-      <c r="M81" s="45"/>
-      <c r="N81" s="109"/>
-      <c r="O81" s="110"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="78"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="19"/>
       <c r="R81" s="12"/>
       <c r="S81" s="2"/>
-      <c r="T81" s="36"/>
+      <c r="T81" s="100"/>
     </row>
     <row r="82" spans="2:20">
       <c r="B82" s="12"/>
       <c r="C82" s="19"/>
-      <c r="D82" s="40">
-        <v>7</v>
-      </c>
-      <c r="E82" s="60"/>
-      <c r="F82" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" s="45"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="45"/>
-      <c r="M82" s="45"/>
-      <c r="N82" s="111"/>
-      <c r="O82" s="112"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="19"/>
+      <c r="D82" s="12">
+        <v>4</v>
+      </c>
+      <c r="E82" s="108"/>
+      <c r="F82" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="77"/>
+      <c r="M82" s="77"/>
+      <c r="N82" s="77"/>
+      <c r="O82" s="122"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
       <c r="R82" s="12"/>
       <c r="S82" s="2"/>
-      <c r="T82" s="36"/>
+      <c r="T82" s="100"/>
     </row>
     <row r="83" spans="2:20">
       <c r="B83" s="12"/>
       <c r="C83" s="19"/>
-      <c r="D83" s="39" t="s">
+      <c r="D83" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F83" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="G83" s="96"/>
-      <c r="H83" s="96"/>
-      <c r="I83" s="96"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="52"/>
-      <c r="L83" s="52"/>
-      <c r="M83" s="52"/>
-      <c r="N83" s="77"/>
-      <c r="O83" s="78"/>
-      <c r="P83" s="52"/>
-      <c r="Q83" s="52"/>
+      <c r="E83" s="108"/>
+      <c r="F83" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="G83" s="110"/>
+      <c r="H83" s="110"/>
+      <c r="I83" s="110"/>
+      <c r="J83" s="110"/>
+      <c r="K83" s="110"/>
+      <c r="L83" s="110"/>
+      <c r="M83" s="110"/>
+      <c r="N83" s="133"/>
+      <c r="O83" s="123"/>
+      <c r="P83" s="134"/>
+      <c r="Q83" s="134"/>
       <c r="R83" s="12"/>
       <c r="S83" s="2"/>
-      <c r="T83" s="36"/>
+      <c r="T83" s="100"/>
     </row>
     <row r="84" spans="2:20">
       <c r="B84" s="12"/>
       <c r="C84" s="19"/>
-      <c r="D84" s="39">
-        <v>1</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
-      <c r="L84" s="45"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="45"/>
-      <c r="O84" s="74"/>
-      <c r="P84" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q84" s="19"/>
+      <c r="D84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="108"/>
+      <c r="F84" s="111" t="s">
+        <v>101</v>
+      </c>
+      <c r="G84" s="104"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="104"/>
+      <c r="J84" s="104"/>
+      <c r="K84" s="104"/>
+      <c r="L84" s="104"/>
+      <c r="M84" s="104"/>
+      <c r="N84" s="125"/>
+      <c r="O84" s="125"/>
+      <c r="P84" s="135" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q84" s="140"/>
       <c r="R84" s="12"/>
       <c r="S84" s="2"/>
-      <c r="T84" s="36"/>
+      <c r="T84" s="100"/>
     </row>
     <row r="85" spans="2:20">
       <c r="B85" s="12"/>
       <c r="C85" s="19"/>
-      <c r="D85" s="39">
-        <v>2</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="G85" s="45"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="45"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="45"/>
-      <c r="M85" s="45"/>
-      <c r="N85" s="45"/>
-      <c r="O85" s="74"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="19"/>
+      <c r="D85" s="12">
+        <v>5</v>
+      </c>
+      <c r="E85" s="108"/>
+      <c r="F85" s="112" t="s">
+        <v>102</v>
+      </c>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="N85" s="136"/>
+      <c r="O85" s="136"/>
+      <c r="P85" s="135"/>
+      <c r="Q85" s="140"/>
       <c r="R85" s="12"/>
       <c r="S85" s="2"/>
-      <c r="T85" s="36"/>
+      <c r="T85" s="100"/>
     </row>
     <row r="86" spans="2:20">
-      <c r="B86" s="12"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="39">
-        <v>3</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="50" t="s">
+      <c r="B86" s="31"/>
+      <c r="C86" s="113"/>
+      <c r="D86" s="31">
+        <v>6</v>
+      </c>
+      <c r="E86" s="114"/>
+      <c r="F86" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="G86" s="116"/>
+      <c r="H86" s="116"/>
+      <c r="I86" s="116"/>
+      <c r="J86" s="116"/>
+      <c r="K86" s="137"/>
+      <c r="L86" s="137"/>
+      <c r="M86" s="137"/>
+      <c r="N86" s="71"/>
+      <c r="O86" s="71"/>
+      <c r="P86" s="138"/>
+      <c r="Q86" s="141"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="142"/>
+      <c r="T86" s="64"/>
+    </row>
+    <row r="90" spans="2:20">
+      <c r="B90" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="7">
+        <v>1</v>
+      </c>
+      <c r="E90" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="45"/>
-      <c r="L86" s="45"/>
-      <c r="M86" s="45"/>
-      <c r="N86" s="45"/>
-      <c r="O86" s="74"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="36"/>
-    </row>
-    <row r="87" spans="2:20">
-      <c r="B87" s="12"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="39">
-        <v>4</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" s="97" t="s">
+      <c r="G90" s="117"/>
+      <c r="H90" s="117"/>
+      <c r="I90" s="117"/>
+      <c r="J90" s="117"/>
+      <c r="K90" s="117"/>
+      <c r="L90" s="117"/>
+      <c r="M90" s="117"/>
+      <c r="N90" s="117"/>
+      <c r="O90" s="117"/>
+      <c r="P90" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G87" s="73"/>
-      <c r="H87" s="73"/>
-      <c r="I87" s="73"/>
-      <c r="J87" s="73"/>
-      <c r="K87" s="73"/>
-      <c r="L87" s="73"/>
-      <c r="M87" s="73"/>
-      <c r="N87" s="73"/>
-      <c r="O87" s="105"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="12"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="36"/>
-    </row>
-    <row r="88" spans="2:20">
-      <c r="B88" s="12"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="G88" s="77"/>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
-      <c r="M88" s="77"/>
-      <c r="N88" s="54"/>
-      <c r="O88" s="106"/>
-      <c r="P88" s="113"/>
-      <c r="Q88" s="113"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="36"/>
-    </row>
-    <row r="89" spans="2:20">
-      <c r="B89" s="12"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="G89" s="54"/>
-      <c r="H89" s="54"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="54"/>
-      <c r="L89" s="54"/>
-      <c r="M89" s="54"/>
-      <c r="N89" s="114" t="s">
-        <v>79</v>
-      </c>
-      <c r="O89" s="115"/>
-      <c r="P89" s="116" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q89" s="122"/>
-      <c r="R89" s="12"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="36"/>
-    </row>
-    <row r="90" spans="2:20">
-      <c r="B90" s="12"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="39">
-        <v>5</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45"/>
-      <c r="K90" s="45"/>
-      <c r="L90" s="45"/>
-      <c r="M90" s="45"/>
-      <c r="N90" s="117"/>
-      <c r="O90" s="118"/>
-      <c r="P90" s="116"/>
-      <c r="Q90" s="122"/>
-      <c r="R90" s="12"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="36"/>
+      <c r="Q90" s="32"/>
+      <c r="R90" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S90" s="8"/>
+      <c r="T90" s="32"/>
     </row>
     <row r="91" spans="2:20">
       <c r="B91" s="12"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="39">
-        <v>6</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="97" t="s">
-        <v>97</v>
-      </c>
-      <c r="G91" s="73"/>
-      <c r="H91" s="73"/>
-      <c r="I91" s="73"/>
-      <c r="J91" s="73"/>
-      <c r="K91" s="73"/>
-      <c r="L91" s="73"/>
-      <c r="M91" s="73"/>
-      <c r="N91" s="117"/>
-      <c r="O91" s="118"/>
-      <c r="P91" s="119"/>
-      <c r="Q91" s="119"/>
-      <c r="R91" s="12"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="36"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="12">
+        <v>3</v>
+      </c>
+      <c r="E91" s="39"/>
+      <c r="F91" t="s">
+        <v>106</v>
+      </c>
+      <c r="P91" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="S91" s="8"/>
+      <c r="T91" s="32"/>
     </row>
     <row r="92" spans="2:20">
       <c r="B92" s="12"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E92" s="2"/>
-      <c r="F92" s="53" t="s">
+      <c r="C92" s="2"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="39"/>
+      <c r="F92" t="s">
         <v>108</v>
       </c>
-      <c r="G92" s="54"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="54"/>
-      <c r="J92" s="54"/>
-      <c r="K92" s="54"/>
-      <c r="L92" s="54"/>
-      <c r="M92" s="54"/>
-      <c r="N92" s="117"/>
-      <c r="O92" s="118"/>
-      <c r="P92" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q92" s="122"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="19"/>
       <c r="R92" s="12"/>
       <c r="S92" s="2"/>
-      <c r="T92" s="36"/>
+      <c r="T92" s="100"/>
     </row>
     <row r="93" spans="2:20">
-      <c r="B93" s="12"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="39">
-        <v>5</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" s="50" t="s">
+      <c r="B93" s="31"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="31">
+        <v>2</v>
+      </c>
+      <c r="E93" s="40"/>
+      <c r="F93" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="G93" s="45"/>
-      <c r="H93" s="45"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="45"/>
-      <c r="L93" s="45"/>
-      <c r="M93" s="45"/>
-      <c r="N93" s="117"/>
-      <c r="O93" s="118"/>
-      <c r="P93" s="116"/>
-      <c r="Q93" s="122"/>
-      <c r="R93" s="12"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="36"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="77"/>
+      <c r="L93" s="77"/>
+      <c r="M93" s="77"/>
+      <c r="N93" s="77"/>
+      <c r="O93" s="77"/>
+      <c r="P93" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="31"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="64"/>
     </row>
     <row r="94" spans="2:20">
-      <c r="B94" s="12"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="39">
-        <v>6</v>
-      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="50" t="s">
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+    </row>
+    <row r="95" spans="2:20">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+    </row>
+    <row r="97" spans="2:20">
+      <c r="B97" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G94" s="45"/>
-      <c r="H94" s="45"/>
-      <c r="I94" s="45"/>
-      <c r="J94" s="45"/>
-      <c r="K94" s="45"/>
-      <c r="L94" s="45"/>
-      <c r="M94" s="45"/>
-      <c r="N94" s="117"/>
-      <c r="O94" s="118"/>
-      <c r="P94" s="116"/>
-      <c r="Q94" s="122"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="36"/>
-    </row>
-    <row r="95" spans="2:20">
-      <c r="B95" s="12"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="39">
-        <v>7</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="50" t="s">
+      <c r="C97" s="8"/>
+      <c r="D97" s="35">
+        <v>1</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="G95" s="45"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="45"/>
-      <c r="K95" s="45"/>
-      <c r="L95" s="45"/>
-      <c r="M95" s="45"/>
-      <c r="N95" s="117"/>
-      <c r="O95" s="118"/>
-      <c r="P95" s="116"/>
-      <c r="Q95" s="122"/>
-      <c r="R95" s="12"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="36"/>
-    </row>
-    <row r="96" spans="2:20">
-      <c r="B96" s="12"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="39">
-        <v>8</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="50" t="s">
+      <c r="G97" s="118"/>
+      <c r="H97" s="118"/>
+      <c r="I97" s="118"/>
+      <c r="J97" s="118"/>
+      <c r="K97" s="118"/>
+      <c r="L97" s="118"/>
+      <c r="M97" s="118"/>
+      <c r="N97" s="118"/>
+      <c r="O97" s="118"/>
+      <c r="P97" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q97" s="62"/>
+      <c r="R97" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="G96" s="45"/>
-      <c r="H96" s="45"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="45"/>
-      <c r="L96" s="45"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="117"/>
-      <c r="O96" s="118"/>
-      <c r="P96" s="116"/>
-      <c r="Q96" s="122"/>
-      <c r="R96" s="12"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="36"/>
-    </row>
-    <row r="97" spans="2:20">
-      <c r="B97" s="31"/>
-      <c r="C97" s="29"/>
-      <c r="D97" s="40">
-        <v>9</v>
-      </c>
-      <c r="E97" s="29"/>
-      <c r="F97" s="97" t="s">
+      <c r="S97" s="8"/>
+      <c r="T97" s="32"/>
+    </row>
+    <row r="98" spans="2:20">
+      <c r="B98" s="12"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="39">
+        <v>2</v>
+      </c>
+      <c r="E98" s="100"/>
+      <c r="F98" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G97" s="73"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="73"/>
-      <c r="J97" s="73"/>
-      <c r="K97" s="73"/>
-      <c r="L97" s="73"/>
-      <c r="M97" s="73"/>
-      <c r="N97" s="120"/>
-      <c r="O97" s="121"/>
-      <c r="P97" s="119"/>
-      <c r="Q97" s="119"/>
-      <c r="R97" s="31"/>
-      <c r="S97" s="29"/>
-      <c r="T97" s="60"/>
-    </row>
-    <row r="99" spans="8:12">
-      <c r="H99" s="5"/>
-      <c r="L99" s="5"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q98" s="100"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="100"/>
+    </row>
+    <row r="99" spans="2:20">
+      <c r="B99" s="31"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="40">
+        <v>3</v>
+      </c>
+      <c r="E99" s="64"/>
+      <c r="F99" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G99" s="45"/>
+      <c r="H99" s="45"/>
+      <c r="I99" s="45"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="45"/>
+      <c r="L99" s="45"/>
+      <c r="M99" s="45"/>
+      <c r="N99" s="45"/>
+      <c r="O99" s="45"/>
+      <c r="P99" s="31"/>
+      <c r="Q99" s="64"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="64"/>
+    </row>
+    <row r="100" spans="2:20">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
     </row>
     <row r="101" spans="2:20">
-      <c r="B101" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="7">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+    </row>
+    <row r="103" spans="2:20">
+      <c r="B103" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E103" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
+      <c r="M103" s="43"/>
+      <c r="N103" s="43"/>
+      <c r="O103" s="43"/>
+      <c r="P103" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q103" s="32"/>
+      <c r="R103" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="S103" s="8"/>
+      <c r="T103" s="32"/>
+    </row>
+    <row r="104" spans="2:20">
+      <c r="B104" s="12"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="12">
         <v>1</v>
       </c>
-      <c r="E101" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="F101" s="99" t="s">
-        <v>115</v>
-      </c>
-      <c r="G101" s="99"/>
-      <c r="H101" s="99"/>
-      <c r="I101" s="99"/>
-      <c r="J101" s="99"/>
-      <c r="K101" s="99"/>
-      <c r="L101" s="99"/>
-      <c r="M101" s="99"/>
-      <c r="N101" s="99"/>
-      <c r="O101" s="99"/>
-      <c r="P101" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q101" s="32"/>
-      <c r="R101" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S101" s="8"/>
-      <c r="T101" s="32"/>
-    </row>
-    <row r="102" spans="2:20">
-      <c r="B102" s="12"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="12">
-        <v>3</v>
-      </c>
-      <c r="E102" s="39"/>
-      <c r="F102" t="s">
+      <c r="E104" s="39"/>
+      <c r="F104" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="P102" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="7" t="s">
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="100"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="100"/>
+    </row>
+    <row r="105" spans="2:20">
+      <c r="B105" s="31"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="31">
+        <v>2</v>
+      </c>
+      <c r="E105" s="40"/>
+      <c r="F105" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="S102" s="8"/>
-      <c r="T102" s="32"/>
-    </row>
-    <row r="103" spans="2:20">
-      <c r="B103" s="12"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="39"/>
-      <c r="F103" t="s">
-        <v>119</v>
-      </c>
-      <c r="P103" s="12"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="12"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="36"/>
-    </row>
-    <row r="104" spans="2:20">
-      <c r="B104" s="31"/>
-      <c r="C104" s="29"/>
-      <c r="D104" s="31">
-        <v>2</v>
-      </c>
-      <c r="E104" s="40"/>
-      <c r="F104" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="G104" s="73"/>
-      <c r="H104" s="73"/>
-      <c r="I104" s="73"/>
-      <c r="J104" s="73"/>
-      <c r="K104" s="73"/>
-      <c r="L104" s="73"/>
-      <c r="M104" s="73"/>
-      <c r="N104" s="73"/>
-      <c r="O104" s="73"/>
-      <c r="P104" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="31"/>
-      <c r="S104" s="29"/>
-      <c r="T104" s="60"/>
-    </row>
-    <row r="105" spans="2:20">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="45"/>
+      <c r="M105" s="45"/>
+      <c r="N105" s="45"/>
+      <c r="O105" s="45"/>
+      <c r="P105" s="31"/>
+      <c r="Q105" s="64"/>
+      <c r="R105" s="29"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="64"/>
     </row>
     <row r="106" spans="2:20">
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
     </row>
-    <row r="108" spans="2:20">
-      <c r="B108" s="7" t="s">
+    <row r="107" spans="2:20">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="2:20">
+      <c r="B109" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="7">
+        <v>1</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" s="119" t="s">
+        <v>120</v>
+      </c>
+      <c r="G109" s="117"/>
+      <c r="H109" s="117"/>
+      <c r="I109" s="117"/>
+      <c r="J109" s="117"/>
+      <c r="K109" s="117"/>
+      <c r="L109" s="118"/>
+      <c r="M109" s="118"/>
+      <c r="N109" s="118"/>
+      <c r="O109" s="118"/>
+      <c r="P109" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q109" s="8"/>
+      <c r="R109" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="S109" s="8"/>
+      <c r="T109" s="32"/>
+    </row>
+    <row r="110" spans="2:20">
+      <c r="B110" s="12"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="12">
+        <v>2</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="F110" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="35">
-        <v>1</v>
-      </c>
-      <c r="E108" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="100" t="s">
+      <c r="L110" s="44"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="33"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="35"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="100"/>
+    </row>
+    <row r="111" spans="2:20">
+      <c r="B111" s="12"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="12">
+        <v>3</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="G108" s="100"/>
-      <c r="H108" s="100"/>
-      <c r="I108" s="100"/>
-      <c r="J108" s="100"/>
-      <c r="K108" s="100"/>
-      <c r="L108" s="100"/>
-      <c r="M108" s="100"/>
-      <c r="N108" s="100"/>
-      <c r="O108" s="100"/>
-      <c r="P108" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q108" s="58"/>
-      <c r="R108" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="S108" s="8"/>
-      <c r="T108" s="32"/>
-    </row>
-    <row r="109" spans="2:20">
-      <c r="B109" s="12"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="39">
-        <v>2</v>
-      </c>
-      <c r="E109" s="36"/>
-      <c r="F109" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q109" s="36"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="36"/>
-    </row>
-    <row r="110" spans="2:20">
-      <c r="B110" s="31"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="40">
-        <v>3</v>
-      </c>
-      <c r="E110" s="60"/>
-      <c r="F110" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="G110" s="44"/>
-      <c r="H110" s="44"/>
-      <c r="I110" s="44"/>
-      <c r="J110" s="44"/>
-      <c r="K110" s="44"/>
-      <c r="L110" s="44"/>
-      <c r="M110" s="44"/>
-      <c r="N110" s="44"/>
-      <c r="O110" s="44"/>
-      <c r="P110" s="31"/>
-      <c r="Q110" s="60"/>
-      <c r="R110" s="29"/>
-      <c r="S110" s="29"/>
-      <c r="T110" s="60"/>
-    </row>
-    <row r="111" spans="2:20">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
+      <c r="L111" s="44"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
+      <c r="P111" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q111" s="29"/>
+      <c r="R111" s="40"/>
       <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
+      <c r="T111" s="100"/>
     </row>
     <row r="112" spans="2:20">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-    </row>
-    <row r="114" spans="2:20">
-      <c r="B114" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E114" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="G114" s="42"/>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42"/>
-      <c r="J114" s="42"/>
-      <c r="K114" s="42"/>
-      <c r="L114" s="42"/>
-      <c r="M114" s="42"/>
-      <c r="N114" s="42"/>
-      <c r="O114" s="42"/>
-      <c r="P114" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q114" s="32"/>
-      <c r="R114" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="S114" s="8"/>
-      <c r="T114" s="32"/>
-    </row>
-    <row r="115" spans="2:20">
-      <c r="B115" s="12"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="12">
-        <v>1</v>
-      </c>
-      <c r="E115" s="39"/>
-      <c r="F115" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="36"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
-      <c r="T115" s="36"/>
-    </row>
-    <row r="116" spans="2:20">
-      <c r="B116" s="31"/>
-      <c r="C116" s="101"/>
-      <c r="D116" s="31">
-        <v>2</v>
-      </c>
-      <c r="E116" s="40"/>
-      <c r="F116" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="G116" s="102"/>
-      <c r="H116" s="102"/>
-      <c r="I116" s="102"/>
-      <c r="J116" s="102"/>
-      <c r="K116" s="102"/>
-      <c r="L116" s="102"/>
-      <c r="M116" s="102"/>
-      <c r="N116" s="102"/>
-      <c r="O116" s="102"/>
-      <c r="P116" s="31"/>
-      <c r="Q116" s="60"/>
-      <c r="R116" s="123"/>
-      <c r="S116" s="123"/>
-      <c r="T116" s="60"/>
-    </row>
-    <row r="117" spans="2:20">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
-      <c r="M117" s="3"/>
-      <c r="N117" s="3"/>
-      <c r="O117" s="3"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
-    </row>
-    <row r="118" spans="2:20">
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
-      <c r="N118" s="3"/>
-      <c r="O118" s="3"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
-      <c r="T118" s="2"/>
-    </row>
-    <row r="119" spans="4:4">
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="2:20">
-      <c r="B120" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="7">
-        <v>1</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F120" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="G120" s="99"/>
-      <c r="H120" s="99"/>
-      <c r="I120" s="99"/>
-      <c r="J120" s="99"/>
-      <c r="K120" s="99"/>
-      <c r="L120" s="100"/>
-      <c r="M120" s="100"/>
-      <c r="N120" s="100"/>
-      <c r="O120" s="100"/>
-      <c r="P120" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="S120" s="8"/>
-      <c r="T120" s="32"/>
-    </row>
-    <row r="121" spans="2:20">
-      <c r="B121" s="12"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="12">
-        <v>2</v>
-      </c>
-      <c r="E121" s="12"/>
-      <c r="F121" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="L121" s="43"/>
-      <c r="M121" s="3"/>
-      <c r="N121" s="3"/>
-      <c r="O121" s="3"/>
-      <c r="P121" s="33"/>
-      <c r="Q121" s="15"/>
-      <c r="R121" s="35"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="36"/>
-    </row>
-    <row r="122" spans="2:20">
-      <c r="B122" s="12"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="12">
-        <v>3</v>
-      </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="L122" s="43"/>
-      <c r="M122" s="3"/>
-      <c r="N122" s="3"/>
-      <c r="O122" s="3"/>
-      <c r="P122" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q122" s="29"/>
-      <c r="R122" s="40"/>
-      <c r="S122" s="2"/>
-      <c r="T122" s="36"/>
-    </row>
-    <row r="123" spans="2:20">
-      <c r="B123" s="31"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="31">
+      <c r="B112" s="31"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="31">
         <v>4</v>
       </c>
-      <c r="E123" s="31"/>
-      <c r="F123" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="G123" s="73"/>
-      <c r="H123" s="73"/>
-      <c r="I123" s="73"/>
-      <c r="J123" s="73"/>
-      <c r="K123" s="73"/>
-      <c r="L123" s="44"/>
-      <c r="M123" s="44"/>
-      <c r="N123" s="44"/>
-      <c r="O123" s="44"/>
-      <c r="P123" s="40"/>
-      <c r="Q123" s="29"/>
-      <c r="R123" s="40"/>
-      <c r="S123" s="29"/>
-      <c r="T123" s="60"/>
-    </row>
-    <row r="128" spans="6:11">
-      <c r="F128" s="104"/>
-      <c r="G128" s="43"/>
-      <c r="H128" s="43"/>
-      <c r="I128" s="43"/>
-      <c r="J128" s="43"/>
-      <c r="K128" s="43"/>
-    </row>
-    <row r="129" spans="6:11">
-      <c r="F129" s="104"/>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
-      <c r="K129" s="43"/>
-    </row>
-    <row r="130" spans="6:11">
-      <c r="F130" s="104"/>
-      <c r="G130" s="43"/>
-      <c r="H130" s="43"/>
-      <c r="I130" s="43"/>
-      <c r="J130" s="43"/>
-      <c r="K130" s="43"/>
-    </row>
-    <row r="131" spans="6:11">
-      <c r="F131" s="104"/>
-      <c r="G131" s="43"/>
-      <c r="H131" s="43"/>
-      <c r="I131" s="43"/>
-      <c r="J131" s="43"/>
-      <c r="K131" s="43"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="45"/>
+      <c r="M112" s="45"/>
+      <c r="N112" s="45"/>
+      <c r="O112" s="45"/>
+      <c r="P112" s="40"/>
+      <c r="Q112" s="29"/>
+      <c r="R112" s="40"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="64"/>
+    </row>
+    <row r="117" spans="6:11">
+      <c r="F117" s="121"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="44"/>
+    </row>
+    <row r="118" spans="6:11">
+      <c r="F118" s="121"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
+      <c r="K118" s="44"/>
+    </row>
+    <row r="119" spans="6:11">
+      <c r="F119" s="121"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="44"/>
+    </row>
+    <row r="120" spans="6:11">
+      <c r="F120" s="121"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
+      <c r="K120" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="75">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="P16:Q16"/>
@@ -4688,12 +4446,16 @@
     <mergeCell ref="R40:T40"/>
     <mergeCell ref="P41:Q41"/>
     <mergeCell ref="F56:O56"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="R101:T101"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:M75"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="R90:T90"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D91:D92"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E26:E29"/>
@@ -4701,16 +4463,14 @@
     <mergeCell ref="E41:E45"/>
     <mergeCell ref="E46:E49"/>
     <mergeCell ref="E50:E52"/>
-    <mergeCell ref="E57:E69"/>
-    <mergeCell ref="E70:E82"/>
-    <mergeCell ref="E83:E97"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="E120:E123"/>
-    <mergeCell ref="B108:C110"/>
+    <mergeCell ref="E57:E64"/>
+    <mergeCell ref="E65:E77"/>
+    <mergeCell ref="E78:E86"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="E109:E112"/>
     <mergeCell ref="P46:Q49"/>
-    <mergeCell ref="P66:Q69"/>
     <mergeCell ref="B17:C36"/>
     <mergeCell ref="P23:Q25"/>
     <mergeCell ref="P31:Q33"/>
@@ -4724,32 +4484,28 @@
     <mergeCell ref="R46:T49"/>
     <mergeCell ref="P50:Q52"/>
     <mergeCell ref="R50:T52"/>
-    <mergeCell ref="B57:C97"/>
     <mergeCell ref="P58:Q60"/>
     <mergeCell ref="P42:Q45"/>
-    <mergeCell ref="P62:Q65"/>
-    <mergeCell ref="N62:O69"/>
-    <mergeCell ref="N77:O82"/>
-    <mergeCell ref="P71:Q75"/>
-    <mergeCell ref="N89:O97"/>
-    <mergeCell ref="P77:Q79"/>
-    <mergeCell ref="P80:Q82"/>
-    <mergeCell ref="P84:Q87"/>
-    <mergeCell ref="P89:Q91"/>
-    <mergeCell ref="P92:Q97"/>
-    <mergeCell ref="R57:T97"/>
-    <mergeCell ref="B101:C104"/>
-    <mergeCell ref="P102:Q103"/>
-    <mergeCell ref="R102:T104"/>
+    <mergeCell ref="P111:Q112"/>
+    <mergeCell ref="P62:Q64"/>
+    <mergeCell ref="P66:Q70"/>
+    <mergeCell ref="P72:Q77"/>
+    <mergeCell ref="P79:Q82"/>
+    <mergeCell ref="B97:C99"/>
+    <mergeCell ref="B57:C86"/>
+    <mergeCell ref="R57:T86"/>
+    <mergeCell ref="B90:C93"/>
+    <mergeCell ref="P91:Q92"/>
+    <mergeCell ref="R91:T93"/>
+    <mergeCell ref="P98:Q99"/>
+    <mergeCell ref="R97:T99"/>
+    <mergeCell ref="B103:C105"/>
+    <mergeCell ref="P103:Q105"/>
+    <mergeCell ref="B109:C112"/>
+    <mergeCell ref="R103:T105"/>
     <mergeCell ref="P109:Q110"/>
-    <mergeCell ref="R108:T110"/>
-    <mergeCell ref="B114:C116"/>
-    <mergeCell ref="P114:Q116"/>
-    <mergeCell ref="B120:C123"/>
-    <mergeCell ref="R114:T116"/>
-    <mergeCell ref="P120:Q121"/>
-    <mergeCell ref="P122:Q123"/>
-    <mergeCell ref="R120:T123"/>
+    <mergeCell ref="R109:T112"/>
+    <mergeCell ref="P84:Q86"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/仕様書/作業スケジュール_PG.xlsx
+++ b/仕様書/作業スケジュール_PG.xlsx
@@ -399,8 +399,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -432,9 +432,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,29 +448,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,15 +470,47 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,6 +518,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,46 +539,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -570,13 +555,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,7 +597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +621,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,55 +753,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,103 +777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,6 +1020,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1034,15 +1064,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,21 +1102,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1104,149 +1110,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1295,10 +1301,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,18 +1451,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1535,6 +1544,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1544,6 +1556,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1560,6 +1575,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1945,8 +1963,8 @@
   <sheetPr/>
   <dimension ref="B1:U116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1416666666667" defaultRowHeight="14.25"/>
@@ -2090,7 +2108,7 @@
         <v>13</v>
       </c>
       <c r="S16" s="15"/>
-      <c r="T16" s="66"/>
+      <c r="T16" s="70"/>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="7" t="s">
@@ -2118,12 +2136,12 @@
       <c r="P17" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="96" t="s">
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="S17" s="97"/>
-      <c r="T17" s="98"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="100"/>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="12"/>
@@ -2149,10 +2167,10 @@
       <c r="P18" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="101"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="104"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="12"/>
@@ -2175,13 +2193,13 @@
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
       <c r="O19" s="69"/>
-      <c r="P19" s="66" t="s">
+      <c r="P19" s="70" t="s">
         <v>21</v>
       </c>
       <c r="Q19" s="13"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="101"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="103"/>
+      <c r="T19" s="104"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="12"/>
@@ -2207,10 +2225,10 @@
       <c r="P20" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="101"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="103"/>
+      <c r="T20" s="104"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="12"/>
@@ -2230,12 +2248,12 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
       <c r="N21" s="24"/>
-      <c r="O21" s="70"/>
+      <c r="O21" s="71"/>
       <c r="P21" s="66"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="99"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="101"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="103"/>
+      <c r="T21" s="104"/>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="12"/>
@@ -2255,12 +2273,12 @@
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
-      <c r="O22" s="71"/>
+      <c r="O22" s="72"/>
       <c r="P22" s="66"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="100"/>
-      <c r="T22" s="101"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="103"/>
+      <c r="T22" s="104"/>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="12"/>
@@ -2279,17 +2297,17 @@
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
-      <c r="L23" s="72"/>
+      <c r="L23" s="73"/>
       <c r="M23" s="21"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="66" t="s">
+      <c r="N23" s="73"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="70" t="s">
         <v>28</v>
       </c>
       <c r="Q23" s="13"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="101"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="104"/>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="12"/>
@@ -2306,15 +2324,15 @@
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
-      <c r="L24" s="72"/>
+      <c r="L24" s="73"/>
       <c r="M24" s="21"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="66"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="70"/>
       <c r="Q24" s="13"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="101"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="103"/>
+      <c r="T24" s="104"/>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" s="12"/>
@@ -2334,12 +2352,12 @@
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="66"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="70"/>
       <c r="Q25" s="13"/>
-      <c r="R25" s="99"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="101"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="103"/>
+      <c r="T25" s="104"/>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="12"/>
@@ -2359,16 +2377,16 @@
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
       <c r="O26" s="69"/>
-      <c r="P26" s="66" t="s">
+      <c r="P26" s="70" t="s">
         <v>28</v>
       </c>
       <c r="Q26" s="13"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="101"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="104"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="12"/>
@@ -2382,20 +2400,20 @@
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="66" t="s">
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="70" t="s">
         <v>33</v>
       </c>
       <c r="Q27" s="13"/>
-      <c r="R27" s="99"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="101"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="104"/>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="12"/>
@@ -2409,18 +2427,18 @@
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="66"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="70"/>
       <c r="Q28" s="13"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="101"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="104"/>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="12"/>
@@ -2440,16 +2458,16 @@
       <c r="J29" s="33"/>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="66" t="s">
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="70" t="s">
         <v>36</v>
       </c>
       <c r="Q29" s="13"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="104"/>
+      <c r="R29" s="105"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="107"/>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="12"/>
@@ -2467,12 +2485,12 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="66" t="s">
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="70" t="s">
         <v>33</v>
       </c>
       <c r="Q30" s="13"/>
@@ -2496,12 +2514,12 @@
       <c r="H31" s="21"/>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="66"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="70"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="12"/>
       <c r="S31" s="2"/>
@@ -2521,12 +2539,12 @@
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="66"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="70"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="12"/>
       <c r="S32" s="2"/>
@@ -2549,9 +2567,9 @@
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="66" t="s">
+      <c r="N33" s="73"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="70" t="s">
         <v>42</v>
       </c>
       <c r="Q33" s="13"/>
@@ -2572,13 +2590,13 @@
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="66"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="70"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="12"/>
       <c r="S34" s="2"/>
@@ -2597,19 +2615,19 @@
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="66" t="s">
+      <c r="J35" s="81"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="70" t="s">
         <v>45</v>
       </c>
       <c r="Q35" s="13"/>
       <c r="R35" s="35"/>
       <c r="S35" s="34"/>
-      <c r="T35" s="68"/>
+      <c r="T35" s="108"/>
     </row>
     <row r="36" spans="6:19">
       <c r="F36" s="1"/>
@@ -2664,18 +2682,18 @@
       <c r="J39" s="38"/>
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
       <c r="P39" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="97" t="s">
+      <c r="Q39" s="70"/>
+      <c r="R39" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="S39" s="97"/>
-      <c r="T39" s="98"/>
+      <c r="S39" s="99"/>
+      <c r="T39" s="100"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="12"/>
@@ -2693,16 +2711,16 @@
       <c r="J40" s="41"/>
       <c r="K40" s="41"/>
       <c r="L40" s="41"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="83"/>
+      <c r="O40" s="83"/>
       <c r="P40" s="12" t="s">
         <v>52</v>
       </c>
       <c r="Q40" s="2"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="100"/>
-      <c r="T40" s="101"/>
+      <c r="R40" s="102"/>
+      <c r="S40" s="103"/>
+      <c r="T40" s="104"/>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="12"/>
@@ -2722,9 +2740,9 @@
       <c r="L41" s="1"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="100"/>
-      <c r="T41" s="101"/>
+      <c r="R41" s="102"/>
+      <c r="S41" s="103"/>
+      <c r="T41" s="104"/>
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="12"/>
@@ -2744,9 +2762,9 @@
       <c r="L42" s="1"/>
       <c r="P42" s="12"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="99"/>
-      <c r="S42" s="100"/>
-      <c r="T42" s="101"/>
+      <c r="R42" s="102"/>
+      <c r="S42" s="103"/>
+      <c r="T42" s="104"/>
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="12"/>
@@ -2769,9 +2787,9 @@
       <c r="O43" s="49"/>
       <c r="P43" s="12"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="99"/>
-      <c r="S43" s="105"/>
-      <c r="T43" s="101"/>
+      <c r="R43" s="102"/>
+      <c r="S43" s="109"/>
+      <c r="T43" s="104"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="12"/>
@@ -2790,19 +2808,19 @@
       <c r="I44" s="46"/>
       <c r="J44" s="46"/>
       <c r="K44" s="46"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
       <c r="P44" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q44" s="8"/>
-      <c r="R44" s="96" t="s">
+      <c r="R44" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="S44" s="97"/>
-      <c r="T44" s="98"/>
+      <c r="S44" s="99"/>
+      <c r="T44" s="100"/>
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="12"/>
@@ -2825,9 +2843,9 @@
       <c r="O45" s="49"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="19"/>
-      <c r="R45" s="99"/>
-      <c r="S45" s="100"/>
-      <c r="T45" s="101"/>
+      <c r="R45" s="102"/>
+      <c r="S45" s="103"/>
+      <c r="T45" s="104"/>
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="12"/>
@@ -2850,9 +2868,9 @@
       <c r="O46" s="49"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="19"/>
-      <c r="R46" s="99"/>
-      <c r="S46" s="100"/>
-      <c r="T46" s="101"/>
+      <c r="R46" s="102"/>
+      <c r="S46" s="103"/>
+      <c r="T46" s="104"/>
     </row>
     <row r="47" spans="2:20">
       <c r="B47" s="12"/>
@@ -2872,12 +2890,12 @@
       <c r="L47" s="48"/>
       <c r="M47" s="48"/>
       <c r="N47" s="48"/>
-      <c r="O47" s="84"/>
+      <c r="O47" s="85"/>
       <c r="P47" s="35"/>
       <c r="Q47" s="34"/>
-      <c r="R47" s="102"/>
-      <c r="S47" s="103"/>
-      <c r="T47" s="104"/>
+      <c r="R47" s="105"/>
+      <c r="S47" s="106"/>
+      <c r="T47" s="107"/>
     </row>
     <row r="48" spans="2:20">
       <c r="B48" s="12"/>
@@ -2899,7 +2917,7 @@
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
       <c r="N48" s="47"/>
-      <c r="O48" s="85"/>
+      <c r="O48" s="86"/>
       <c r="P48" s="19" t="s">
         <v>33</v>
       </c>
@@ -2924,7 +2942,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="O49" s="85"/>
+      <c r="O49" s="86"/>
       <c r="P49" s="19"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="12"/>
@@ -2949,12 +2967,12 @@
       <c r="L50" s="48"/>
       <c r="M50" s="48"/>
       <c r="N50" s="48"/>
-      <c r="O50" s="86"/>
+      <c r="O50" s="87"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="34"/>
       <c r="R50" s="35"/>
       <c r="S50" s="34"/>
-      <c r="T50" s="68"/>
+      <c r="T50" s="108"/>
     </row>
     <row r="51" spans="2:20">
       <c r="B51" s="2"/>
@@ -3033,7 +3051,7 @@
       <c r="L54" s="51"/>
       <c r="M54" s="51"/>
       <c r="N54" s="51"/>
-      <c r="O54" s="87"/>
+      <c r="O54" s="88"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -3061,14 +3079,14 @@
       <c r="L55" s="57"/>
       <c r="M55" s="57"/>
       <c r="N55" s="57"/>
-      <c r="O55" s="88"/>
+      <c r="O55" s="89"/>
       <c r="P55" s="61"/>
       <c r="Q55" s="61"/>
       <c r="R55" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S55" s="8"/>
-      <c r="T55" s="106"/>
+      <c r="T55" s="110"/>
     </row>
     <row r="56" spans="2:21">
       <c r="B56" s="12"/>
@@ -3088,7 +3106,7 @@
       <c r="L56" s="49"/>
       <c r="M56" s="49"/>
       <c r="N56" s="49"/>
-      <c r="O56" s="85"/>
+      <c r="O56" s="86"/>
       <c r="P56" s="2" t="s">
         <v>70</v>
       </c>
@@ -3116,7 +3134,7 @@
       <c r="L57" s="49"/>
       <c r="M57" s="49"/>
       <c r="N57" s="49"/>
-      <c r="O57" s="85"/>
+      <c r="O57" s="86"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="19"/>
       <c r="R57" s="12"/>
@@ -3141,7 +3159,7 @@
       <c r="L58" s="49"/>
       <c r="M58" s="49"/>
       <c r="N58" s="49"/>
-      <c r="O58" s="85"/>
+      <c r="O58" s="86"/>
       <c r="P58" s="34"/>
       <c r="Q58" s="34"/>
       <c r="R58" s="12"/>
@@ -3165,10 +3183,10 @@
       <c r="K59" s="57"/>
       <c r="L59" s="57"/>
       <c r="M59" s="57"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="89"/>
-      <c r="P59" s="90"/>
-      <c r="Q59" s="90"/>
+      <c r="N59" s="84"/>
+      <c r="O59" s="90"/>
+      <c r="P59" s="91"/>
+      <c r="Q59" s="91"/>
       <c r="R59" s="12"/>
       <c r="S59" s="2"/>
       <c r="T59" s="62"/>
@@ -3190,8 +3208,8 @@
       <c r="K60" s="59"/>
       <c r="L60" s="59"/>
       <c r="M60" s="59"/>
-      <c r="N60" s="91"/>
-      <c r="O60" s="92"/>
+      <c r="N60" s="92"/>
+      <c r="O60" s="93"/>
       <c r="P60" s="8" t="s">
         <v>52</v>
       </c>
@@ -3217,8 +3235,8 @@
       <c r="K61" s="49"/>
       <c r="L61" s="49"/>
       <c r="M61" s="49"/>
-      <c r="N61" s="93"/>
-      <c r="O61" s="94"/>
+      <c r="N61" s="94"/>
+      <c r="O61" s="95"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="12"/>
@@ -3239,9 +3257,9 @@
       <c r="J62" s="49"/>
       <c r="K62" s="49"/>
       <c r="L62" s="49"/>
-      <c r="M62" s="72"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="94"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="76"/>
+      <c r="O62" s="95"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="19"/>
       <c r="R62" s="12"/>
@@ -3268,9 +3286,9 @@
       <c r="L63" s="57"/>
       <c r="M63" s="57"/>
       <c r="N63" s="57"/>
-      <c r="O63" s="88"/>
-      <c r="P63" s="95"/>
-      <c r="Q63" s="95"/>
+      <c r="O63" s="89"/>
+      <c r="P63" s="96"/>
+      <c r="Q63" s="96"/>
       <c r="R63" s="12"/>
       <c r="S63" s="2"/>
       <c r="T63" s="62"/>
@@ -3293,7 +3311,7 @@
       <c r="L64" s="49"/>
       <c r="M64" s="49"/>
       <c r="N64" s="49"/>
-      <c r="O64" s="85"/>
+      <c r="O64" s="86"/>
       <c r="P64" s="2" t="s">
         <v>80</v>
       </c>
@@ -3320,7 +3338,7 @@
       <c r="L65" s="49"/>
       <c r="M65" s="49"/>
       <c r="N65" s="49"/>
-      <c r="O65" s="85"/>
+      <c r="O65" s="86"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="12"/>
@@ -3345,7 +3363,7 @@
       <c r="L66" s="49"/>
       <c r="M66" s="49"/>
       <c r="N66" s="49"/>
-      <c r="O66" s="85"/>
+      <c r="O66" s="86"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="19"/>
       <c r="R66" s="12"/>
@@ -3370,7 +3388,7 @@
       <c r="L67" s="49"/>
       <c r="M67" s="49"/>
       <c r="N67" s="49"/>
-      <c r="O67" s="85"/>
+      <c r="O67" s="86"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="19"/>
       <c r="R67" s="12"/>
@@ -3395,7 +3413,7 @@
       <c r="L68" s="49"/>
       <c r="M68" s="49"/>
       <c r="N68" s="49"/>
-      <c r="O68" s="111"/>
+      <c r="O68" s="115"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="34"/>
       <c r="R68" s="12"/>
@@ -3420,9 +3438,9 @@
       <c r="L69" s="57"/>
       <c r="M69" s="57"/>
       <c r="N69" s="57"/>
-      <c r="O69" s="112"/>
-      <c r="P69" s="113"/>
-      <c r="Q69" s="113"/>
+      <c r="O69" s="116"/>
+      <c r="P69" s="117"/>
+      <c r="Q69" s="117"/>
       <c r="R69" s="12"/>
       <c r="S69" s="2"/>
       <c r="T69" s="62"/>
@@ -3444,8 +3462,8 @@
       <c r="K70" s="59"/>
       <c r="L70" s="59"/>
       <c r="M70" s="59"/>
-      <c r="N70" s="114"/>
-      <c r="O70" s="115"/>
+      <c r="N70" s="118"/>
+      <c r="O70" s="119"/>
       <c r="P70" s="19" t="s">
         <v>80</v>
       </c>
@@ -3461,7 +3479,7 @@
         <v>6</v>
       </c>
       <c r="E71" s="62"/>
-      <c r="F71" s="107" t="s">
+      <c r="F71" s="111" t="s">
         <v>86</v>
       </c>
       <c r="G71" s="1"/>
@@ -3471,8 +3489,8 @@
       <c r="K71" s="49"/>
       <c r="L71" s="49"/>
       <c r="M71" s="49"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="116"/>
+      <c r="N71" s="76"/>
+      <c r="O71" s="120"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="19"/>
       <c r="R71" s="12"/>
@@ -3486,14 +3504,14 @@
         <v>4</v>
       </c>
       <c r="E72" s="62"/>
-      <c r="F72" s="107" t="s">
+      <c r="F72" s="111" t="s">
         <v>87</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="N72" s="75"/>
-      <c r="O72" s="116"/>
+      <c r="N72" s="76"/>
+      <c r="O72" s="120"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="19"/>
       <c r="R72" s="12"/>
@@ -3507,7 +3525,7 @@
         <v>7</v>
       </c>
       <c r="E73" s="62"/>
-      <c r="F73" s="107" t="s">
+      <c r="F73" s="111" t="s">
         <v>88</v>
       </c>
       <c r="G73" s="1"/>
@@ -3517,8 +3535,8 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="117"/>
-      <c r="O73" s="118"/>
+      <c r="N73" s="121"/>
+      <c r="O73" s="122"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="19"/>
       <c r="R73" s="12"/>
@@ -3542,8 +3560,8 @@
       <c r="K74" s="49"/>
       <c r="L74" s="49"/>
       <c r="M74" s="49"/>
-      <c r="N74" s="117"/>
-      <c r="O74" s="118"/>
+      <c r="N74" s="121"/>
+      <c r="O74" s="122"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="19"/>
       <c r="R74" s="12"/>
@@ -3567,8 +3585,8 @@
       <c r="K75" s="49"/>
       <c r="L75" s="49"/>
       <c r="M75" s="49"/>
-      <c r="N75" s="119"/>
-      <c r="O75" s="120"/>
+      <c r="N75" s="123"/>
+      <c r="O75" s="124"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="19"/>
       <c r="R75" s="12"/>
@@ -3594,8 +3612,8 @@
       <c r="K76" s="57"/>
       <c r="L76" s="57"/>
       <c r="M76" s="57"/>
-      <c r="N76" s="95"/>
-      <c r="O76" s="112"/>
+      <c r="N76" s="96"/>
+      <c r="O76" s="116"/>
       <c r="P76" s="57"/>
       <c r="Q76" s="57"/>
       <c r="R76" s="12"/>
@@ -3620,7 +3638,7 @@
       <c r="L77" s="49"/>
       <c r="M77" s="49"/>
       <c r="N77" s="49"/>
-      <c r="O77" s="85"/>
+      <c r="O77" s="86"/>
       <c r="P77" s="2" t="s">
         <v>52</v>
       </c>
@@ -3647,7 +3665,7 @@
       <c r="L78" s="49"/>
       <c r="M78" s="49"/>
       <c r="N78" s="49"/>
-      <c r="O78" s="85"/>
+      <c r="O78" s="86"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="19"/>
       <c r="R78" s="12"/>
@@ -3672,7 +3690,7 @@
       <c r="L79" s="49"/>
       <c r="M79" s="49"/>
       <c r="N79" s="49"/>
-      <c r="O79" s="85"/>
+      <c r="O79" s="86"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="19"/>
       <c r="R79" s="12"/>
@@ -3686,18 +3704,18 @@
         <v>4</v>
       </c>
       <c r="E80" s="42"/>
-      <c r="F80" s="84" t="s">
+      <c r="F80" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
-      <c r="J80" s="84"/>
-      <c r="K80" s="84"/>
-      <c r="L80" s="84"/>
-      <c r="M80" s="84"/>
-      <c r="N80" s="84"/>
-      <c r="O80" s="111"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="85"/>
+      <c r="J80" s="85"/>
+      <c r="K80" s="85"/>
+      <c r="L80" s="85"/>
+      <c r="M80" s="85"/>
+      <c r="N80" s="85"/>
+      <c r="O80" s="115"/>
       <c r="P80" s="34"/>
       <c r="Q80" s="34"/>
       <c r="R80" s="12"/>
@@ -3711,20 +3729,20 @@
         <v>50</v>
       </c>
       <c r="E81" s="42"/>
-      <c r="F81" s="95" t="s">
+      <c r="F81" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="G81" s="95"/>
-      <c r="H81" s="95"/>
-      <c r="I81" s="95"/>
-      <c r="J81" s="95"/>
-      <c r="K81" s="95"/>
-      <c r="L81" s="95"/>
-      <c r="M81" s="95"/>
-      <c r="N81" s="95"/>
-      <c r="O81" s="112"/>
-      <c r="P81" s="121"/>
-      <c r="Q81" s="121"/>
+      <c r="G81" s="96"/>
+      <c r="H81" s="96"/>
+      <c r="I81" s="96"/>
+      <c r="J81" s="96"/>
+      <c r="K81" s="96"/>
+      <c r="L81" s="96"/>
+      <c r="M81" s="96"/>
+      <c r="N81" s="96"/>
+      <c r="O81" s="116"/>
+      <c r="P81" s="125"/>
+      <c r="Q81" s="125"/>
       <c r="R81" s="12"/>
       <c r="S81" s="2"/>
       <c r="T81" s="62"/>
@@ -3746,12 +3764,12 @@
       <c r="K82" s="59"/>
       <c r="L82" s="59"/>
       <c r="M82" s="59"/>
-      <c r="N82" s="114"/>
-      <c r="O82" s="114"/>
-      <c r="P82" s="122" t="s">
+      <c r="N82" s="118"/>
+      <c r="O82" s="118"/>
+      <c r="P82" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="Q82" s="125"/>
+      <c r="Q82" s="129"/>
       <c r="R82" s="12"/>
       <c r="S82" s="2"/>
       <c r="T82" s="62"/>
@@ -3770,10 +3788,10 @@
       <c r="H83" s="49"/>
       <c r="I83" s="49"/>
       <c r="J83" s="49"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
-      <c r="P83" s="122"/>
-      <c r="Q83" s="125"/>
+      <c r="N83" s="76"/>
+      <c r="O83" s="76"/>
+      <c r="P83" s="126"/>
+      <c r="Q83" s="129"/>
       <c r="R83" s="12"/>
       <c r="S83" s="2"/>
       <c r="T83" s="62"/>
@@ -3785,23 +3803,23 @@
         <v>6</v>
       </c>
       <c r="E84" s="43"/>
-      <c r="F84" s="84" t="s">
+      <c r="F84" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="G84" s="84"/>
-      <c r="H84" s="84"/>
-      <c r="I84" s="84"/>
-      <c r="J84" s="84"/>
-      <c r="K84" s="84"/>
-      <c r="L84" s="84"/>
-      <c r="M84" s="84"/>
-      <c r="N84" s="77"/>
-      <c r="O84" s="77"/>
-      <c r="P84" s="123"/>
-      <c r="Q84" s="126"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="85"/>
+      <c r="L84" s="85"/>
+      <c r="M84" s="85"/>
+      <c r="N84" s="78"/>
+      <c r="O84" s="78"/>
+      <c r="P84" s="127"/>
+      <c r="Q84" s="130"/>
       <c r="R84" s="35"/>
       <c r="S84" s="34"/>
-      <c r="T84" s="68"/>
+      <c r="T84" s="108"/>
     </row>
     <row r="88" spans="2:20">
       <c r="B88" s="7" t="s">
@@ -3814,27 +3832,27 @@
       <c r="E88" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F88" s="81" t="s">
+      <c r="F88" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="G88" s="81"/>
-      <c r="H88" s="81"/>
-      <c r="I88" s="81"/>
-      <c r="J88" s="81"/>
-      <c r="K88" s="81"/>
-      <c r="L88" s="81"/>
-      <c r="M88" s="81"/>
-      <c r="N88" s="81"/>
-      <c r="O88" s="81"/>
+      <c r="G88" s="82"/>
+      <c r="H88" s="82"/>
+      <c r="I88" s="82"/>
+      <c r="J88" s="82"/>
+      <c r="K88" s="82"/>
+      <c r="L88" s="82"/>
+      <c r="M88" s="82"/>
+      <c r="N88" s="82"/>
+      <c r="O88" s="82"/>
       <c r="P88" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Q88" s="106"/>
+      <c r="Q88" s="110"/>
       <c r="R88" s="8" t="s">
         <v>103</v>
       </c>
       <c r="S88" s="8"/>
-      <c r="T88" s="106"/>
+      <c r="T88" s="110"/>
     </row>
     <row r="89" spans="2:20">
       <c r="B89" s="35"/>
@@ -3843,25 +3861,25 @@
         <v>2</v>
       </c>
       <c r="E89" s="43"/>
-      <c r="F89" s="84" t="s">
+      <c r="F89" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="G89" s="84"/>
-      <c r="H89" s="84"/>
-      <c r="I89" s="84"/>
-      <c r="J89" s="84"/>
-      <c r="K89" s="84"/>
-      <c r="L89" s="84"/>
-      <c r="M89" s="84"/>
-      <c r="N89" s="84"/>
-      <c r="O89" s="84"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="85"/>
+      <c r="O89" s="85"/>
       <c r="P89" s="13" t="s">
         <v>21</v>
       </c>
       <c r="Q89" s="15"/>
       <c r="R89" s="35"/>
       <c r="S89" s="34"/>
-      <c r="T89" s="68"/>
+      <c r="T89" s="108"/>
     </row>
     <row r="90" spans="2:20">
       <c r="B90" s="2"/>
@@ -3893,7 +3911,7 @@
       <c r="D93" s="36">
         <v>1</v>
       </c>
-      <c r="E93" s="106" t="s">
+      <c r="E93" s="110" t="s">
         <v>19</v>
       </c>
       <c r="F93" s="38" t="s">
@@ -3911,12 +3929,12 @@
       <c r="P93" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Q93" s="66"/>
+      <c r="Q93" s="70"/>
       <c r="R93" s="52" t="s">
         <v>107</v>
       </c>
       <c r="S93" s="8"/>
-      <c r="T93" s="106"/>
+      <c r="T93" s="110"/>
     </row>
     <row r="94" spans="2:20">
       <c r="B94" s="12"/>
@@ -3951,7 +3969,7 @@
       <c r="D95" s="43">
         <v>3</v>
       </c>
-      <c r="E95" s="68"/>
+      <c r="E95" s="108"/>
       <c r="F95" s="48" t="s">
         <v>109</v>
       </c>
@@ -3965,10 +3983,10 @@
       <c r="N95" s="48"/>
       <c r="O95" s="48"/>
       <c r="P95" s="35"/>
-      <c r="Q95" s="68"/>
+      <c r="Q95" s="108"/>
       <c r="R95" s="34"/>
       <c r="S95" s="34"/>
-      <c r="T95" s="68"/>
+      <c r="T95" s="108"/>
     </row>
     <row r="96" spans="2:20">
       <c r="B96" s="2"/>
@@ -4038,12 +4056,12 @@
       <c r="P99" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Q99" s="106"/>
+      <c r="Q99" s="110"/>
       <c r="R99" s="8" t="s">
         <v>113</v>
       </c>
       <c r="S99" s="8"/>
-      <c r="T99" s="106"/>
+      <c r="T99" s="110"/>
     </row>
     <row r="100" spans="2:20">
       <c r="B100" s="12"/>
@@ -4090,10 +4108,10 @@
       <c r="N101" s="48"/>
       <c r="O101" s="48"/>
       <c r="P101" s="35"/>
-      <c r="Q101" s="68"/>
+      <c r="Q101" s="108"/>
       <c r="R101" s="34"/>
       <c r="S101" s="34"/>
-      <c r="T101" s="68"/>
+      <c r="T101" s="108"/>
     </row>
     <row r="102" spans="2:20">
       <c r="B102" s="2"/>
@@ -4151,14 +4169,14 @@
       <c r="E105" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F105" s="108" t="s">
+      <c r="F105" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="G105" s="81"/>
-      <c r="H105" s="81"/>
-      <c r="I105" s="81"/>
-      <c r="J105" s="81"/>
-      <c r="K105" s="81"/>
+      <c r="G105" s="82"/>
+      <c r="H105" s="82"/>
+      <c r="I105" s="82"/>
+      <c r="J105" s="82"/>
+      <c r="K105" s="82"/>
       <c r="L105" s="38"/>
       <c r="M105" s="38"/>
       <c r="N105" s="38"/>
@@ -4171,7 +4189,7 @@
         <v>38</v>
       </c>
       <c r="S105" s="8"/>
-      <c r="T105" s="106"/>
+      <c r="T105" s="110"/>
     </row>
     <row r="106" spans="2:20">
       <c r="B106" s="12"/>
@@ -4187,7 +4205,7 @@
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
-      <c r="P106" s="124"/>
+      <c r="P106" s="128"/>
       <c r="Q106" s="15"/>
       <c r="R106" s="36"/>
       <c r="S106" s="2"/>
@@ -4222,14 +4240,14 @@
         <v>4</v>
       </c>
       <c r="E108" s="35"/>
-      <c r="F108" s="109" t="s">
+      <c r="F108" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="G108" s="84"/>
-      <c r="H108" s="84"/>
-      <c r="I108" s="84"/>
-      <c r="J108" s="84"/>
-      <c r="K108" s="84"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="85"/>
       <c r="L108" s="48"/>
       <c r="M108" s="48"/>
       <c r="N108" s="48"/>
@@ -4238,10 +4256,10 @@
       <c r="Q108" s="34"/>
       <c r="R108" s="43"/>
       <c r="S108" s="34"/>
-      <c r="T108" s="68"/>
+      <c r="T108" s="108"/>
     </row>
     <row r="113" spans="6:11">
-      <c r="F113" s="110"/>
+      <c r="F113" s="114"/>
       <c r="G113" s="47"/>
       <c r="H113" s="47"/>
       <c r="I113" s="47"/>
@@ -4249,7 +4267,7 @@
       <c r="K113" s="47"/>
     </row>
     <row r="114" spans="6:11">
-      <c r="F114" s="110"/>
+      <c r="F114" s="114"/>
       <c r="G114" s="47"/>
       <c r="H114" s="47"/>
       <c r="I114" s="47"/>
@@ -4257,7 +4275,7 @@
       <c r="K114" s="47"/>
     </row>
     <row r="115" spans="6:11">
-      <c r="F115" s="110"/>
+      <c r="F115" s="114"/>
       <c r="G115" s="47"/>
       <c r="H115" s="47"/>
       <c r="I115" s="47"/>
@@ -4265,7 +4283,7 @@
       <c r="K115" s="47"/>
     </row>
     <row r="116" spans="6:11">
-      <c r="F116" s="110"/>
+      <c r="F116" s="114"/>
       <c r="G116" s="47"/>
       <c r="H116" s="47"/>
       <c r="I116" s="47"/>

--- a/仕様書/作業スケジュール_PG.xlsx
+++ b/仕様書/作業スケジュール_PG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21720" windowHeight="7620"/>
+    <workbookView windowWidth="22935" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>8月27日まで完成させる</t>
   </si>
@@ -218,10 +218,6 @@
     <t>ギミック担当</t>
   </si>
   <si>
-    <t xml:space="preserve">水瀧
-</t>
-  </si>
-  <si>
     <t>火の第一派生</t>
   </si>
   <si>
@@ -247,82 +243,81 @@
   </si>
   <si>
     <t>他は第一派生と同じ</t>
+  </si>
+  <si>
+    <t>水瀧</t>
+  </si>
+  <si>
+    <t>氷の第一派生</t>
+  </si>
+  <si>
+    <t>敵が点滅（アルファブレンド）してから４秒後に２×３のサイズの氷を描画する</t>
+  </si>
+  <si>
+    <t>5日</t>
+  </si>
+  <si>
+    <t>2×３の氷を描画する際に描画範囲に他のブロックがある場合その部分だけは描画しないようにする</t>
+  </si>
+  <si>
+    <t>この氷は主人公が氷の中に侵入できないようにする</t>
+  </si>
+  <si>
+    <t>さらにこの氷は主人公の足場としても使えるようにする</t>
+  </si>
+  <si>
+    <t>氷ブロックは描画してから７秒で消える</t>
+  </si>
+  <si>
+    <t>氷→風</t>
+  </si>
+  <si>
+    <t>描画される氷のサイズが4×4になる</t>
+  </si>
+  <si>
+    <t>消える時間は第一派生と同じで7秒</t>
+  </si>
+  <si>
+    <t>描画された氷は（攻撃した方向）にブロックがない限り永遠に進み続ける()内、要相談</t>
+  </si>
+  <si>
+    <t>進む速度は主人公のダッシュの速度の*1.1</t>
+  </si>
+  <si>
+    <t>氷が進んでいる間に氷のあたり判定内に敵が入ればその敵はのけぞり状態になり消滅する</t>
+  </si>
+  <si>
+    <t>柴田　</t>
+  </si>
+  <si>
+    <t>風の第一派生</t>
+  </si>
+  <si>
+    <t>竜巻の描画を６×６の範囲でする</t>
+  </si>
+  <si>
+    <t>敵が点滅（アルファブレンド）してから４秒後に竜巻を描画しまわっているようなアニメーションをつける</t>
+  </si>
+  <si>
+    <t>竜巻の発生してる状態で敵が竜巻の当たり判定内に入ったら進行方向とは逆の方向に４マス戻す</t>
+  </si>
+  <si>
+    <t>さらに竜巻の効果範囲内に風で動くブロックがあれば右、左、上、下の優先順位で動かす</t>
+  </si>
+  <si>
+    <t>風→氷</t>
+  </si>
+  <si>
+    <t>氷ブロックを描画してから7秒で消えるのを10秒にする</t>
+  </si>
+  <si>
+    <t>マップ</t>
   </si>
   <si>
     <t xml:space="preserve">山本
 </t>
   </si>
   <si>
-    <t>氷の第一派生</t>
-  </si>
-  <si>
-    <t>敵が点滅（アルファブレンド）してから４秒後に２×３のサイズの氷を描画する</t>
-  </si>
-  <si>
-    <t>5日</t>
-  </si>
-  <si>
-    <t>2×３の氷を描画する際に描画範囲に他のブロックがある場合その部分だけは描画しないようにする</t>
-  </si>
-  <si>
-    <t>この氷は主人公が氷の中に侵入できないようにする</t>
-  </si>
-  <si>
-    <t>さらにこの氷は主人公の足場としても使えるようにする</t>
-  </si>
-  <si>
-    <t>氷ブロックは描画してから７秒で消える</t>
-  </si>
-  <si>
-    <t>氷→風</t>
-  </si>
-  <si>
-    <t>描画される氷のサイズが4×4になる</t>
-  </si>
-  <si>
-    <t>消える時間は第一派生と同じで7秒</t>
-  </si>
-  <si>
-    <t>描画された氷は（攻撃した方向）にブロックがない限り永遠に進み続ける()内、要相談</t>
-  </si>
-  <si>
-    <t>進む速度は主人公のダッシュの速度の*1.1</t>
-  </si>
-  <si>
-    <t>氷が進んでいる間に氷のあたり判定内に敵が入ればその敵はのけぞり状態になり消滅する</t>
-  </si>
-  <si>
-    <t>柴田　</t>
-  </si>
-  <si>
-    <t>風の第一派生</t>
-  </si>
-  <si>
-    <t>竜巻の描画を６×６の範囲でする</t>
-  </si>
-  <si>
-    <t>敵が点滅（アルファブレンド）してから４秒後に竜巻を描画しまわっているようなアニメーションをつける</t>
-  </si>
-  <si>
-    <t>竜巻の発生してる状態で敵が竜巻の当たり判定内に入ったら進行方向とは逆の方向に４マス戻す</t>
-  </si>
-  <si>
-    <t>さらに竜巻の効果範囲内に風で動くブロックがあれば右、左、上、下の優先順位で動かす</t>
-  </si>
-  <si>
-    <t>風→氷</t>
-  </si>
-  <si>
-    <t>氷ブロックを描画してから7秒で消えるのを10秒にする</t>
-  </si>
-  <si>
-    <t>マップ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">山本
-</t>
-  </si>
-  <si>
     <t>プランナーから渡された本マップを描画する</t>
   </si>
   <si>
@@ -332,7 +327,7 @@
     <t>本マップができてから</t>
   </si>
   <si>
-    <t>主人公が一定座標まで行くと画面がスクロールする</t>
+    <t>主人公を中心にカメラが移動する</t>
   </si>
   <si>
     <t>シーン</t>
@@ -370,9 +365,6 @@
   </si>
   <si>
     <t>UI</t>
-  </si>
-  <si>
-    <t>水瀧</t>
   </si>
   <si>
     <t>ダメージを食らうと、HP（ハート）の色が暗くなるように描画する。</t>
@@ -392,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -420,15 +412,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,7 +437,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,9 +480,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,94 +543,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -591,7 +583,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,67 +739,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,91 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,6 +998,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1017,6 +1018,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,22 +1048,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,17 +1072,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,15 +1095,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1111,149 +1103,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1338,24 +1330,30 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1368,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1386,16 +1384,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1437,22 +1444,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -1545,7 +1564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1575,6 +1594,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1615,6 +1640,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1937,8 +1965,8 @@
   <sheetPr/>
   <dimension ref="B1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1416666666667" defaultRowHeight="14.25"/>
@@ -1983,7 +2011,7 @@
         <v>4</v>
       </c>
       <c r="T4" s="7"/>
-      <c r="U4" s="37"/>
+      <c r="U4" s="39"/>
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="6" t="s">
@@ -2008,16 +2036,16 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="86" t="s">
+      <c r="P5" s="61"/>
+      <c r="Q5" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="32"/>
-      <c r="S5" s="87" t="s">
+      <c r="R5" s="33"/>
+      <c r="S5" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="87"/>
-      <c r="U5" s="88"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="97"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="10"/>
@@ -2038,14 +2066,14 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="89" t="s">
+      <c r="P6" s="62"/>
+      <c r="Q6" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="90"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="92"/>
-      <c r="U6" s="93"/>
+      <c r="R6" s="99"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="102"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="10"/>
@@ -2068,14 +2096,14 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="94" t="s">
+      <c r="P7" s="63"/>
+      <c r="Q7" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="95"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="93"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="102"/>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="10"/>
@@ -2096,14 +2124,14 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="89" t="s">
+      <c r="P8" s="62"/>
+      <c r="Q8" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="90"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="93"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="100"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="102"/>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="10"/>
@@ -2124,14 +2152,14 @@
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="96" t="s">
+      <c r="P9" s="64"/>
+      <c r="Q9" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="94"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="93"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="100"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="102"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="10"/>
@@ -2155,13 +2183,13 @@
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
-      <c r="Q10" s="32" t="s">
+      <c r="Q10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="32"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="93"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="100"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="102"/>
     </row>
     <row r="11" spans="2:21">
       <c r="B11" s="10"/>
@@ -2184,14 +2212,14 @@
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
       <c r="O11" s="24"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="89" t="s">
+      <c r="P11" s="65"/>
+      <c r="Q11" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="90"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="93"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="100"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="102"/>
     </row>
     <row r="12" spans="2:21">
       <c r="B12" s="10"/>
@@ -2212,12 +2240,12 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="91"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="93"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="100"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="102"/>
     </row>
     <row r="13" spans="2:21">
       <c r="B13" s="10"/>
@@ -2238,12 +2266,12 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="91"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="93"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="100"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="102"/>
     </row>
     <row r="14" spans="2:21">
       <c r="B14" s="10"/>
@@ -2264,14 +2292,14 @@
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="96" t="s">
+      <c r="P14" s="64"/>
+      <c r="Q14" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="94"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="93"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="100"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="102"/>
     </row>
     <row r="15" spans="2:21">
       <c r="B15" s="10"/>
@@ -2295,13 +2323,13 @@
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
-      <c r="Q15" s="90" t="s">
+      <c r="Q15" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="90"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="93"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="100"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="102"/>
     </row>
     <row r="16" spans="2:21">
       <c r="B16" s="10"/>
@@ -2323,11 +2351,11 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="14"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="91"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="93"/>
+      <c r="Q16" s="99"/>
+      <c r="R16" s="99"/>
+      <c r="S16" s="100"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="102"/>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="10"/>
@@ -2349,11 +2377,11 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="14"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="91"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="93"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="100"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="102"/>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="10"/>
@@ -2372,18 +2400,18 @@
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="97" t="s">
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="86"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="93"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="102"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="10"/>
@@ -2392,80 +2420,80 @@
         <v>1</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
       <c r="P19" s="62"/>
-      <c r="Q19" s="86" t="s">
+      <c r="Q19" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="32"/>
-      <c r="S19" s="91"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="93"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="102"/>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="10"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="31">
+      <c r="D20" s="30">
         <v>2</v>
       </c>
       <c r="E20" s="10"/>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
       <c r="P20" s="62"/>
-      <c r="Q20" s="86" t="s">
+      <c r="Q20" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="R20" s="32"/>
-      <c r="S20" s="91"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="93"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="102"/>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="31">
+      <c r="D21" s="30">
         <v>3</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="93"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="99"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="102"/>
     </row>
     <row r="22" spans="2:21">
       <c r="B22" s="10"/>
@@ -2473,7 +2501,7 @@
       <c r="D22" s="15">
         <v>1</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="33" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="22" t="s">
@@ -2485,17 +2513,17 @@
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
       <c r="P22" s="22"/>
-      <c r="Q22" s="32" t="s">
+      <c r="Q22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="R22" s="32"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="99"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="108"/>
     </row>
     <row r="23" spans="2:21">
       <c r="B23" s="10"/>
@@ -2506,7 +2534,7 @@
       <c r="E23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="34" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="17"/>
@@ -2515,19 +2543,19 @@
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="86" t="s">
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="R23" s="32"/>
-      <c r="S23" s="39" t="s">
+      <c r="R23" s="33"/>
+      <c r="S23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="T23" s="39"/>
-      <c r="U23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="43"/>
     </row>
     <row r="24" spans="2:21">
       <c r="B24" s="10"/>
@@ -2536,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="35" t="s">
         <v>38</v>
       </c>
       <c r="G24" s="22"/>
@@ -2545,15 +2573,15 @@
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="41"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="43"/>
     </row>
     <row r="25" spans="2:21">
       <c r="B25" s="10"/>
@@ -2562,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="35" t="s">
         <v>39</v>
       </c>
       <c r="G25" s="22"/>
@@ -2571,15 +2599,15 @@
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="41"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="43"/>
     </row>
     <row r="26" spans="2:21">
       <c r="B26" s="10"/>
@@ -2588,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="35" t="s">
         <v>40</v>
       </c>
       <c r="G26" s="22"/>
@@ -2600,14 +2628,14 @@
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
       <c r="O26" s="22"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="86" t="s">
+      <c r="P26" s="71"/>
+      <c r="Q26" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="R26" s="32"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="41"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="43"/>
     </row>
     <row r="27" spans="2:21">
       <c r="B27" s="10"/>
@@ -2616,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="35" t="s">
         <v>42</v>
       </c>
       <c r="G27" s="22"/>
@@ -2628,20 +2656,20 @@
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="22"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="41"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="95"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="43"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36">
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38">
         <v>4</v>
       </c>
-      <c r="E28" s="34"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="19" t="s">
         <v>43</v>
       </c>
@@ -2654,14 +2682,14 @@
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="86" t="s">
+      <c r="P28" s="64"/>
+      <c r="Q28" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="R28" s="32"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="100"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="109"/>
     </row>
     <row r="29" spans="6:20">
       <c r="F29" s="1"/>
@@ -2704,305 +2732,313 @@
       <c r="D32" s="21">
         <v>1</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="32" t="s">
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="R32" s="32"/>
-      <c r="S32" s="101" t="s">
+      <c r="R32" s="99"/>
+      <c r="S32" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="T32" s="101"/>
-      <c r="U32" s="101"/>
+      <c r="T32" s="110"/>
+      <c r="U32" s="110"/>
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="10"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42" t="s">
+      <c r="E33" s="43"/>
+      <c r="F33" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="32" t="s">
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="R33" s="32"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="110"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="110"/>
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="10"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="43">
+      <c r="C34" s="41"/>
+      <c r="D34" s="45">
         <v>2</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="5" t="s">
+      <c r="E34" s="43"/>
+      <c r="F34" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="1"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="101"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="110"/>
+      <c r="T34" s="110"/>
+      <c r="U34" s="110"/>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="10"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="43">
+      <c r="C35" s="41"/>
+      <c r="D35" s="45">
         <v>3</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="43"/>
+      <c r="F35" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="101"/>
-      <c r="U35" s="101"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="110"/>
+      <c r="T35" s="110"/>
+      <c r="U35" s="110"/>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="10"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="43">
+      <c r="C36" s="41"/>
+      <c r="D36" s="45">
         <v>4</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="44" t="s">
+      <c r="E36" s="43"/>
+      <c r="F36" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="101"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="110"/>
+      <c r="T36" s="110"/>
+      <c r="U36" s="110"/>
     </row>
     <row r="37" spans="2:21">
       <c r="B37" s="10"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="45">
+      <c r="C37" s="41"/>
+      <c r="D37" s="48">
         <v>5</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="44" t="s">
+      <c r="E37" s="43"/>
+      <c r="F37" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="101"/>
-      <c r="U37" s="101"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="110"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
     </row>
     <row r="38" spans="2:21">
       <c r="B38" s="10"/>
-      <c r="C38" s="39"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="67"/>
-      <c r="P38" s="67"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="76"/>
       <c r="Q38" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R38" s="39"/>
-      <c r="S38" s="102" t="s">
+      <c r="R38" s="41"/>
+      <c r="S38" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="T38" s="91"/>
-      <c r="U38" s="93"/>
+      <c r="T38" s="100"/>
+      <c r="U38" s="102"/>
     </row>
     <row r="39" spans="2:21">
       <c r="B39" s="10"/>
-      <c r="C39" s="39"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="10">
         <v>1</v>
       </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="47" t="s">
+      <c r="E39" s="45"/>
+      <c r="F39" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="39"/>
-      <c r="S39" s="102"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="93"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="101"/>
+      <c r="U39" s="102"/>
     </row>
     <row r="40" spans="2:21">
       <c r="B40" s="10"/>
-      <c r="C40" s="39"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="10">
         <v>3</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="47" t="s">
+      <c r="E40" s="45"/>
+      <c r="F40" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="49"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="75"/>
       <c r="Q40" s="10"/>
-      <c r="R40" s="39"/>
-      <c r="S40" s="102"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="93"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="101"/>
+      <c r="U40" s="102"/>
     </row>
     <row r="41" spans="2:21">
       <c r="B41" s="10"/>
-      <c r="C41" s="39"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="10">
         <v>2</v>
       </c>
-      <c r="E41" s="45"/>
-      <c r="F41" s="48" t="s">
+      <c r="E41" s="48"/>
+      <c r="F41" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="103"/>
-      <c r="T41" s="98"/>
-      <c r="U41" s="99"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="77"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="112"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="108"/>
     </row>
     <row r="42" spans="2:21">
       <c r="B42" s="10"/>
-      <c r="C42" s="39"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="6">
         <v>2</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="47" t="s">
+      <c r="F42" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="39" t="s">
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="78"/>
+      <c r="Q42" s="41" t="s">
         <v>32</v>
       </c>
       <c r="R42" s="11"/>
       <c r="S42" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="T42" s="39"/>
-      <c r="U42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="43"/>
     </row>
     <row r="43" spans="2:21">
       <c r="B43" s="10"/>
-      <c r="C43" s="39"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="10">
         <v>3</v>
       </c>
-      <c r="E43" s="43"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="5" t="s">
         <v>63</v>
       </c>
@@ -3010,38 +3046,38 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="39"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="41"/>
       <c r="R43" s="11"/>
       <c r="S43" s="10"/>
       <c r="T43" s="11"/>
-      <c r="U43" s="41"/>
+      <c r="U43" s="43"/>
     </row>
     <row r="44" spans="2:21">
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="34">
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="36">
         <v>1</v>
       </c>
-      <c r="E44" s="45"/>
-      <c r="F44" s="48" t="s">
+      <c r="E44" s="48"/>
+      <c r="F44" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="100"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="53"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="36"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="109"/>
     </row>
     <row r="45" spans="2:21">
       <c r="B45" s="11"/>
@@ -3110,21 +3146,21 @@
       <c r="U47" s="11"/>
     </row>
     <row r="48" ht="15" spans="4:20">
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="50" t="s">
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="72"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="81"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
@@ -3139,485 +3175,485 @@
         <v>49</v>
       </c>
       <c r="E49" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F49" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="73"/>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="74"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="60"/>
+      <c r="R49" s="60"/>
       <c r="S49" s="6" t="s">
         <v>37</v>
       </c>
       <c r="T49" s="7"/>
-      <c r="U49" s="37"/>
+      <c r="U49" s="39"/>
     </row>
     <row r="50" spans="2:22">
       <c r="B50" s="10"/>
-      <c r="C50" s="39"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="10">
         <v>1</v>
       </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="49" t="s">
+      <c r="E50" s="45"/>
+      <c r="F50" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="78"/>
+      <c r="Q50" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49"/>
-      <c r="P50" s="69"/>
-      <c r="Q50" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="R50" s="39"/>
+      <c r="R50" s="41"/>
       <c r="S50" s="10"/>
       <c r="T50" s="11"/>
-      <c r="U50" s="41"/>
+      <c r="U50" s="43"/>
       <c r="V50" s="5"/>
     </row>
     <row r="51" spans="2:21">
       <c r="B51" s="10"/>
-      <c r="C51" s="39"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="10">
         <v>3</v>
       </c>
-      <c r="E51" s="43"/>
-      <c r="F51" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="69"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="78"/>
       <c r="Q51" s="11"/>
-      <c r="R51" s="39"/>
+      <c r="R51" s="41"/>
       <c r="S51" s="10"/>
       <c r="T51" s="11"/>
-      <c r="U51" s="41"/>
+      <c r="U51" s="43"/>
     </row>
     <row r="52" spans="2:21">
       <c r="B52" s="10"/>
-      <c r="C52" s="39"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="10">
         <v>2</v>
       </c>
-      <c r="E52" s="43"/>
-      <c r="F52" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
+      <c r="P52" s="78"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
       <c r="S52" s="10"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="41"/>
+      <c r="U52" s="43"/>
     </row>
     <row r="53" spans="2:21">
       <c r="B53" s="10"/>
-      <c r="C53" s="39"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="104"/>
-      <c r="R53" s="104"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="58"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="58"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="113"/>
+      <c r="R53" s="113"/>
       <c r="S53" s="10"/>
       <c r="T53" s="11"/>
-      <c r="U53" s="41"/>
+      <c r="U53" s="43"/>
     </row>
     <row r="54" spans="2:21">
       <c r="B54" s="10"/>
-      <c r="C54" s="39"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="43"/>
-      <c r="F54" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76"/>
-      <c r="P54" s="77"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="85"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="86"/>
       <c r="Q54" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R54" s="7"/>
       <c r="S54" s="10"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="41"/>
+      <c r="U54" s="43"/>
     </row>
     <row r="55" spans="2:21">
       <c r="B55" s="10"/>
-      <c r="C55" s="39"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="10">
         <v>4</v>
       </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="78"/>
-      <c r="O55" s="78"/>
-      <c r="P55" s="79"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="88"/>
       <c r="Q55" s="11"/>
-      <c r="R55" s="39"/>
+      <c r="R55" s="41"/>
       <c r="S55" s="10"/>
       <c r="T55" s="11"/>
-      <c r="U55" s="41"/>
+      <c r="U55" s="43"/>
     </row>
     <row r="56" spans="2:21">
       <c r="B56" s="10"/>
-      <c r="C56" s="39"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="81"/>
-      <c r="P56" s="79"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="90"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="88"/>
       <c r="Q56" s="11"/>
-      <c r="R56" s="39"/>
+      <c r="R56" s="41"/>
       <c r="S56" s="10"/>
       <c r="T56" s="11"/>
-      <c r="U56" s="41"/>
+      <c r="U56" s="43"/>
     </row>
     <row r="57" spans="2:21">
       <c r="B57" s="10"/>
-      <c r="C57" s="39"/>
+      <c r="C57" s="41"/>
       <c r="D57" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E57" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="F57" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="82"/>
-      <c r="Q57" s="73"/>
-      <c r="R57" s="73"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="58"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="58"/>
+      <c r="P57" s="91"/>
+      <c r="Q57" s="82"/>
+      <c r="R57" s="82"/>
       <c r="S57" s="10"/>
       <c r="T57" s="11"/>
-      <c r="U57" s="41"/>
+      <c r="U57" s="43"/>
     </row>
     <row r="58" spans="2:21">
       <c r="B58" s="10"/>
-      <c r="C58" s="39"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="10">
         <v>1</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="49" t="s">
+      <c r="E58" s="45"/>
+      <c r="F58" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="69"/>
-      <c r="Q58" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R58" s="39"/>
+      <c r="R58" s="41"/>
       <c r="S58" s="10"/>
       <c r="T58" s="11"/>
-      <c r="U58" s="41"/>
+      <c r="U58" s="43"/>
     </row>
     <row r="59" spans="2:21">
       <c r="B59" s="10"/>
-      <c r="C59" s="39"/>
+      <c r="C59" s="41"/>
       <c r="D59" s="10">
         <v>5</v>
       </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="69"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="78"/>
       <c r="Q59" s="11"/>
-      <c r="R59" s="39"/>
+      <c r="R59" s="41"/>
       <c r="S59" s="10"/>
       <c r="T59" s="11"/>
-      <c r="U59" s="41"/>
+      <c r="U59" s="43"/>
     </row>
     <row r="60" spans="2:21">
       <c r="B60" s="10"/>
-      <c r="C60" s="39"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="10">
         <v>2</v>
       </c>
-      <c r="E60" s="43"/>
-      <c r="F60" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="69"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="78"/>
       <c r="Q60" s="11"/>
-      <c r="R60" s="39"/>
+      <c r="R60" s="41"/>
       <c r="S60" s="10"/>
       <c r="T60" s="11"/>
-      <c r="U60" s="41"/>
+      <c r="U60" s="43"/>
     </row>
     <row r="61" spans="2:21">
       <c r="B61" s="10"/>
-      <c r="C61" s="39"/>
+      <c r="C61" s="41"/>
       <c r="D61" s="10">
         <v>3</v>
       </c>
-      <c r="E61" s="43"/>
-      <c r="F61" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="69"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="78"/>
       <c r="Q61" s="11"/>
-      <c r="R61" s="39"/>
+      <c r="R61" s="41"/>
       <c r="S61" s="10"/>
       <c r="T61" s="11"/>
-      <c r="U61" s="41"/>
+      <c r="U61" s="43"/>
     </row>
     <row r="62" spans="2:21">
       <c r="B62" s="10"/>
-      <c r="C62" s="39"/>
+      <c r="C62" s="41"/>
       <c r="D62" s="10">
         <v>4</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="49"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="35"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="77"/>
+      <c r="P62" s="92"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
       <c r="S62" s="10"/>
       <c r="T62" s="11"/>
-      <c r="U62" s="41"/>
+      <c r="U62" s="43"/>
     </row>
     <row r="63" spans="2:21">
       <c r="B63" s="10"/>
-      <c r="C63" s="39"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="73"/>
-      <c r="O63" s="73"/>
-      <c r="P63" s="74"/>
-      <c r="Q63" s="105"/>
-      <c r="R63" s="105"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="82"/>
+      <c r="O63" s="82"/>
+      <c r="P63" s="83"/>
+      <c r="Q63" s="114"/>
+      <c r="R63" s="114"/>
       <c r="S63" s="10"/>
       <c r="T63" s="11"/>
-      <c r="U63" s="41"/>
+      <c r="U63" s="43"/>
     </row>
     <row r="64" spans="2:21">
       <c r="B64" s="10"/>
-      <c r="C64" s="39"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="43"/>
-      <c r="F64" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="84"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="85"/>
-      <c r="Q64" s="39" t="s">
-        <v>80</v>
+      <c r="E64" s="45"/>
+      <c r="F64" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="94"/>
+      <c r="Q64" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="R64" s="7"/>
       <c r="S64" s="10"/>
       <c r="T64" s="11"/>
-      <c r="U64" s="41"/>
+      <c r="U64" s="43"/>
     </row>
     <row r="65" spans="2:21">
       <c r="B65" s="10"/>
-      <c r="C65" s="39"/>
+      <c r="C65" s="41"/>
       <c r="D65" s="10">
         <v>6</v>
       </c>
-      <c r="E65" s="43"/>
-      <c r="F65" s="44" t="s">
-        <v>86</v>
+      <c r="E65" s="45"/>
+      <c r="F65" s="49" t="s">
+        <v>85</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="81"/>
-      <c r="O65" s="81"/>
-      <c r="P65" s="111"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="90"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="122"/>
       <c r="Q65" s="11"/>
-      <c r="R65" s="39"/>
+      <c r="R65" s="41"/>
       <c r="S65" s="10"/>
       <c r="T65" s="11"/>
-      <c r="U65" s="41"/>
+      <c r="U65" s="43"/>
     </row>
     <row r="66" spans="2:21">
       <c r="B66" s="10"/>
-      <c r="C66" s="39"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="10">
         <v>4</v>
       </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="44" t="s">
-        <v>87</v>
+      <c r="E66" s="45"/>
+      <c r="F66" s="49" t="s">
+        <v>86</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="N66" s="81"/>
-      <c r="O66" s="81"/>
-      <c r="P66" s="111"/>
+      <c r="N66" s="90"/>
+      <c r="O66" s="90"/>
+      <c r="P66" s="122"/>
       <c r="Q66" s="11"/>
-      <c r="R66" s="39"/>
+      <c r="R66" s="41"/>
       <c r="S66" s="10"/>
       <c r="T66" s="11"/>
-      <c r="U66" s="41"/>
+      <c r="U66" s="43"/>
     </row>
     <row r="67" spans="2:21">
       <c r="B67" s="10"/>
-      <c r="C67" s="39"/>
+      <c r="C67" s="41"/>
       <c r="D67" s="10">
         <v>7</v>
       </c>
-      <c r="E67" s="43"/>
-      <c r="F67" s="44" t="s">
-        <v>88</v>
+      <c r="E67" s="45"/>
+      <c r="F67" s="49" t="s">
+        <v>87</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -3626,365 +3662,365 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="112"/>
-      <c r="O67" s="112"/>
-      <c r="P67" s="113"/>
+      <c r="N67" s="123"/>
+      <c r="O67" s="123"/>
+      <c r="P67" s="124"/>
       <c r="Q67" s="11"/>
-      <c r="R67" s="39"/>
+      <c r="R67" s="41"/>
       <c r="S67" s="10"/>
       <c r="T67" s="11"/>
-      <c r="U67" s="41"/>
+      <c r="U67" s="43"/>
     </row>
     <row r="68" spans="2:21">
       <c r="B68" s="10"/>
-      <c r="C68" s="39"/>
+      <c r="C68" s="41"/>
       <c r="D68" s="10">
         <v>9</v>
       </c>
-      <c r="E68" s="43"/>
-      <c r="F68" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
-      <c r="K68" s="49"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="112"/>
-      <c r="O68" s="112"/>
-      <c r="P68" s="113"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="123"/>
+      <c r="O68" s="123"/>
+      <c r="P68" s="124"/>
       <c r="Q68" s="11"/>
-      <c r="R68" s="39"/>
+      <c r="R68" s="41"/>
       <c r="S68" s="10"/>
       <c r="T68" s="11"/>
-      <c r="U68" s="41"/>
+      <c r="U68" s="43"/>
     </row>
     <row r="69" spans="2:21">
       <c r="B69" s="10"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="34">
+      <c r="C69" s="41"/>
+      <c r="D69" s="36">
         <v>8</v>
       </c>
-      <c r="E69" s="45"/>
-      <c r="F69" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="114"/>
-      <c r="O69" s="114"/>
-      <c r="P69" s="115"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="125"/>
+      <c r="O69" s="125"/>
+      <c r="P69" s="126"/>
       <c r="Q69" s="11"/>
-      <c r="R69" s="39"/>
+      <c r="R69" s="41"/>
       <c r="S69" s="10"/>
       <c r="T69" s="11"/>
-      <c r="U69" s="41"/>
+      <c r="U69" s="43"/>
     </row>
     <row r="70" spans="2:21">
       <c r="B70" s="10"/>
-      <c r="C70" s="39"/>
+      <c r="C70" s="41"/>
       <c r="D70" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="F70" s="106" t="s">
-        <v>92</v>
-      </c>
-      <c r="G70" s="106"/>
-      <c r="H70" s="106"/>
-      <c r="I70" s="106"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="73"/>
-      <c r="O70" s="73"/>
-      <c r="P70" s="74"/>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="53"/>
+      <c r="G70" s="115"/>
+      <c r="H70" s="115"/>
+      <c r="I70" s="115"/>
+      <c r="J70" s="58"/>
+      <c r="K70" s="58"/>
+      <c r="L70" s="58"/>
+      <c r="M70" s="58"/>
+      <c r="N70" s="82"/>
+      <c r="O70" s="82"/>
+      <c r="P70" s="83"/>
+      <c r="Q70" s="58"/>
+      <c r="R70" s="58"/>
       <c r="S70" s="10"/>
       <c r="T70" s="11"/>
-      <c r="U70" s="41"/>
+      <c r="U70" s="43"/>
     </row>
     <row r="71" spans="2:21">
       <c r="B71" s="10"/>
-      <c r="C71" s="39"/>
+      <c r="C71" s="41"/>
       <c r="D71" s="10">
         <v>1</v>
       </c>
-      <c r="E71" s="43"/>
-      <c r="F71" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="69"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="78"/>
       <c r="Q71" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="R71" s="39"/>
+      <c r="R71" s="41"/>
       <c r="S71" s="10"/>
       <c r="T71" s="11"/>
-      <c r="U71" s="41"/>
+      <c r="U71" s="43"/>
     </row>
     <row r="72" spans="2:21">
       <c r="B72" s="10"/>
-      <c r="C72" s="39"/>
+      <c r="C72" s="41"/>
       <c r="D72" s="10">
         <v>2</v>
       </c>
-      <c r="E72" s="43"/>
-      <c r="F72" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="69"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="78"/>
       <c r="Q72" s="11"/>
-      <c r="R72" s="39"/>
+      <c r="R72" s="41"/>
       <c r="S72" s="10"/>
       <c r="T72" s="11"/>
-      <c r="U72" s="41"/>
+      <c r="U72" s="43"/>
     </row>
     <row r="73" spans="2:21">
       <c r="B73" s="10"/>
-      <c r="C73" s="39"/>
+      <c r="C73" s="41"/>
       <c r="D73" s="10">
         <v>3</v>
       </c>
-      <c r="E73" s="43"/>
-      <c r="F73" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="69"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="78"/>
       <c r="Q73" s="11"/>
-      <c r="R73" s="39"/>
+      <c r="R73" s="41"/>
       <c r="S73" s="10"/>
       <c r="T73" s="11"/>
-      <c r="U73" s="41"/>
+      <c r="U73" s="43"/>
     </row>
     <row r="74" spans="2:21">
       <c r="B74" s="10"/>
-      <c r="C74" s="39"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="10">
         <v>4</v>
       </c>
-      <c r="E74" s="43"/>
-      <c r="F74" s="68" t="s">
-        <v>96</v>
-      </c>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="68"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="68"/>
-      <c r="P74" s="83"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="77"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="77"/>
+      <c r="L74" s="77"/>
+      <c r="M74" s="77"/>
+      <c r="N74" s="77"/>
+      <c r="O74" s="77"/>
+      <c r="P74" s="92"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
       <c r="S74" s="10"/>
       <c r="T74" s="11"/>
-      <c r="U74" s="41"/>
+      <c r="U74" s="43"/>
     </row>
     <row r="75" spans="2:21">
       <c r="B75" s="10"/>
-      <c r="C75" s="39"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E75" s="43"/>
-      <c r="F75" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" s="73"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="73"/>
-      <c r="J75" s="73"/>
-      <c r="K75" s="73"/>
-      <c r="L75" s="73"/>
-      <c r="M75" s="73"/>
-      <c r="N75" s="73"/>
-      <c r="O75" s="73"/>
-      <c r="P75" s="74"/>
-      <c r="Q75" s="117"/>
-      <c r="R75" s="117"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="G75" s="82"/>
+      <c r="H75" s="82"/>
+      <c r="I75" s="82"/>
+      <c r="J75" s="82"/>
+      <c r="K75" s="82"/>
+      <c r="L75" s="82"/>
+      <c r="M75" s="82"/>
+      <c r="N75" s="82"/>
+      <c r="O75" s="82"/>
+      <c r="P75" s="83"/>
+      <c r="Q75" s="128"/>
+      <c r="R75" s="128"/>
       <c r="S75" s="10"/>
       <c r="T75" s="11"/>
-      <c r="U75" s="41"/>
+      <c r="U75" s="43"/>
     </row>
     <row r="76" spans="2:21">
       <c r="B76" s="10"/>
-      <c r="C76" s="39"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E76" s="43"/>
-      <c r="F76" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="84"/>
-      <c r="O76" s="84"/>
-      <c r="P76" s="84"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" s="59"/>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="59"/>
+      <c r="N76" s="93"/>
+      <c r="O76" s="93"/>
+      <c r="P76" s="93"/>
       <c r="Q76" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R76" s="118"/>
+      <c r="R76" s="129"/>
       <c r="S76" s="10"/>
       <c r="T76" s="11"/>
-      <c r="U76" s="41"/>
+      <c r="U76" s="43"/>
     </row>
     <row r="77" spans="2:21">
       <c r="B77" s="10"/>
-      <c r="C77" s="39"/>
+      <c r="C77" s="41"/>
       <c r="D77" s="10">
         <v>5</v>
       </c>
-      <c r="E77" s="43"/>
-      <c r="F77" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="49"/>
-      <c r="N77" s="81"/>
-      <c r="O77" s="81"/>
-      <c r="P77" s="81"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54"/>
+      <c r="J77" s="54"/>
+      <c r="N77" s="90"/>
+      <c r="O77" s="90"/>
+      <c r="P77" s="90"/>
       <c r="Q77" s="12"/>
-      <c r="R77" s="118"/>
+      <c r="R77" s="129"/>
       <c r="S77" s="10"/>
       <c r="T77" s="11"/>
-      <c r="U77" s="41"/>
+      <c r="U77" s="43"/>
     </row>
     <row r="78" spans="2:21">
-      <c r="B78" s="34"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="34">
+      <c r="B78" s="36"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="36">
         <v>6</v>
       </c>
-      <c r="E78" s="45"/>
-      <c r="F78" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="G78" s="68"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="68"/>
-      <c r="M78" s="68"/>
-      <c r="N78" s="116"/>
-      <c r="O78" s="116"/>
-      <c r="P78" s="116"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="119"/>
-      <c r="S78" s="34"/>
-      <c r="T78" s="35"/>
-      <c r="U78" s="100"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="G78" s="77"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="77"/>
+      <c r="L78" s="77"/>
+      <c r="M78" s="77"/>
+      <c r="N78" s="127"/>
+      <c r="O78" s="127"/>
+      <c r="P78" s="127"/>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="130"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="109"/>
     </row>
     <row r="82" spans="2:21">
       <c r="B82" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="6">
         <v>1</v>
       </c>
       <c r="E82" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="F82" s="65" t="s">
+      <c r="G82" s="116"/>
+      <c r="H82" s="116"/>
+      <c r="I82" s="116"/>
+      <c r="J82" s="116"/>
+      <c r="K82" s="116"/>
+      <c r="L82" s="116"/>
+      <c r="M82" s="116"/>
+      <c r="N82" s="116"/>
+      <c r="O82" s="116"/>
+      <c r="P82" s="116"/>
+      <c r="Q82" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="65"/>
-      <c r="M82" s="65"/>
-      <c r="N82" s="65"/>
-      <c r="O82" s="65"/>
-      <c r="P82" s="65"/>
-      <c r="Q82" s="6" t="s">
+      <c r="R82" s="39"/>
+      <c r="S82" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="R82" s="37"/>
-      <c r="S82" s="7" t="s">
+      <c r="T82" s="7"/>
+      <c r="U82" s="39"/>
+    </row>
+    <row r="83" spans="2:21">
+      <c r="B83" s="36"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="36">
+        <v>2</v>
+      </c>
+      <c r="E83" s="48"/>
+      <c r="F83" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="T82" s="7"/>
-      <c r="U82" s="37"/>
-    </row>
-    <row r="83" spans="2:21">
-      <c r="B83" s="34"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="34">
-        <v>2</v>
-      </c>
-      <c r="E83" s="45"/>
-      <c r="F83" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="68"/>
-      <c r="N83" s="68"/>
-      <c r="O83" s="68"/>
-      <c r="P83" s="68"/>
-      <c r="Q83" s="120" t="s">
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="77"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="77"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="77"/>
+      <c r="N83" s="77"/>
+      <c r="O83" s="77"/>
+      <c r="P83" s="77"/>
+      <c r="Q83" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="R83" s="97"/>
-      <c r="S83" s="34"/>
-      <c r="T83" s="35"/>
-      <c r="U83" s="100"/>
+      <c r="R83" s="132"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="109"/>
     </row>
     <row r="84" spans="2:21">
       <c r="B84" s="11"/>
@@ -4010,47 +4046,47 @@
     </row>
     <row r="87" spans="2:21">
       <c r="B87" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="21">
         <v>1</v>
       </c>
-      <c r="E87" s="37" t="s">
+      <c r="E87" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="38" t="s">
+      <c r="F87" s="117" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" s="117"/>
+      <c r="H87" s="117"/>
+      <c r="I87" s="117"/>
+      <c r="J87" s="117"/>
+      <c r="K87" s="117"/>
+      <c r="L87" s="117"/>
+      <c r="M87" s="117"/>
+      <c r="N87" s="117"/>
+      <c r="O87" s="117"/>
+      <c r="P87" s="117"/>
+      <c r="Q87" s="131" t="s">
+        <v>8</v>
+      </c>
+      <c r="R87" s="95"/>
+      <c r="S87" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="38"/>
-      <c r="Q87" s="120" t="s">
-        <v>8</v>
-      </c>
-      <c r="R87" s="86"/>
-      <c r="S87" s="121" t="s">
-        <v>107</v>
-      </c>
       <c r="T87" s="7"/>
-      <c r="U87" s="37"/>
+      <c r="U87" s="39"/>
     </row>
     <row r="88" spans="2:21">
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
-      <c r="D88" s="43">
+      <c r="D88" s="45">
         <v>2</v>
       </c>
-      <c r="E88" s="41"/>
+      <c r="E88" s="43"/>
       <c r="F88" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -4065,36 +4101,36 @@
       <c r="Q88" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R88" s="41"/>
+      <c r="R88" s="43"/>
       <c r="S88" s="11"/>
       <c r="T88" s="11"/>
-      <c r="U88" s="41"/>
+      <c r="U88" s="43"/>
     </row>
     <row r="89" spans="2:21">
-      <c r="B89" s="34"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="45">
+      <c r="B89" s="36"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="48">
         <v>3</v>
       </c>
-      <c r="E89" s="100"/>
-      <c r="F89" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" s="48"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
-      <c r="L89" s="48"/>
-      <c r="M89" s="48"/>
-      <c r="N89" s="48"/>
-      <c r="O89" s="48"/>
-      <c r="P89" s="48"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="100"/>
-      <c r="S89" s="35"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="100"/>
+      <c r="E89" s="109"/>
+      <c r="F89" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="G89" s="53"/>
+      <c r="H89" s="53"/>
+      <c r="I89" s="53"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="53"/>
+      <c r="L89" s="53"/>
+      <c r="M89" s="53"/>
+      <c r="N89" s="53"/>
+      <c r="O89" s="53"/>
+      <c r="P89" s="53"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="109"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="109"/>
     </row>
     <row r="90" spans="2:21">
       <c r="B90" s="11"/>
@@ -4142,47 +4178,47 @@
     </row>
     <row r="93" spans="2:21">
       <c r="B93" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E93" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="F93" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="G93" s="46"/>
-      <c r="H93" s="46"/>
-      <c r="I93" s="46"/>
-      <c r="J93" s="46"/>
-      <c r="K93" s="46"/>
-      <c r="L93" s="46"/>
-      <c r="M93" s="46"/>
-      <c r="N93" s="46"/>
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="50"/>
+      <c r="P93" s="50"/>
       <c r="Q93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R93" s="37"/>
+      <c r="R93" s="39"/>
       <c r="S93" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T93" s="7"/>
-      <c r="U93" s="37"/>
+      <c r="U93" s="39"/>
     </row>
     <row r="94" spans="2:21">
       <c r="B94" s="10"/>
-      <c r="C94" s="39"/>
+      <c r="C94" s="41"/>
       <c r="D94" s="10">
         <v>1</v>
       </c>
-      <c r="E94" s="43"/>
+      <c r="E94" s="45"/>
       <c r="F94" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
@@ -4195,36 +4231,36 @@
       <c r="O94" s="5"/>
       <c r="P94" s="5"/>
       <c r="Q94" s="10"/>
-      <c r="R94" s="41"/>
+      <c r="R94" s="43"/>
       <c r="S94" s="11"/>
       <c r="T94" s="11"/>
-      <c r="U94" s="41"/>
+      <c r="U94" s="43"/>
     </row>
     <row r="95" spans="2:21">
-      <c r="B95" s="34"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="34">
+      <c r="B95" s="36"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="36">
         <v>2</v>
       </c>
-      <c r="E95" s="45"/>
-      <c r="F95" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="G95" s="48"/>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48"/>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48"/>
-      <c r="L95" s="48"/>
-      <c r="M95" s="48"/>
-      <c r="N95" s="48"/>
-      <c r="O95" s="48"/>
-      <c r="P95" s="48"/>
-      <c r="Q95" s="34"/>
-      <c r="R95" s="100"/>
-      <c r="S95" s="35"/>
-      <c r="T95" s="35"/>
-      <c r="U95" s="100"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="53"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="53"/>
+      <c r="L95" s="53"/>
+      <c r="M95" s="53"/>
+      <c r="N95" s="53"/>
+      <c r="O95" s="53"/>
+      <c r="P95" s="53"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="109"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="109"/>
     </row>
     <row r="96" spans="2:21">
       <c r="B96" s="11"/>
@@ -4275,28 +4311,28 @@
     </row>
     <row r="99" spans="2:21">
       <c r="B99" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="6">
         <v>1</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F99" s="107" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
-      <c r="I99" s="65"/>
-      <c r="J99" s="65"/>
-      <c r="K99" s="65"/>
-      <c r="L99" s="38"/>
-      <c r="M99" s="38"/>
-      <c r="N99" s="38"/>
-      <c r="O99" s="38"/>
-      <c r="P99" s="38"/>
+        <v>76</v>
+      </c>
+      <c r="F99" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
+      <c r="L99" s="117"/>
+      <c r="M99" s="117"/>
+      <c r="N99" s="117"/>
+      <c r="O99" s="117"/>
+      <c r="P99" s="117"/>
       <c r="Q99" s="21" t="s">
         <v>48</v>
       </c>
@@ -4305,109 +4341,109 @@
         <v>37</v>
       </c>
       <c r="T99" s="7"/>
-      <c r="U99" s="37"/>
+      <c r="U99" s="39"/>
     </row>
     <row r="100" spans="2:21">
       <c r="B100" s="10"/>
-      <c r="C100" s="39"/>
+      <c r="C100" s="41"/>
       <c r="D100" s="10">
         <v>2</v>
       </c>
       <c r="E100" s="10"/>
-      <c r="F100" s="108" t="s">
-        <v>119</v>
-      </c>
-      <c r="L100" s="47"/>
+      <c r="F100" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="L100" s="51"/>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
-      <c r="Q100" s="32"/>
-      <c r="R100" s="97"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="132"/>
       <c r="S100" s="21"/>
       <c r="T100" s="11"/>
-      <c r="U100" s="41"/>
+      <c r="U100" s="43"/>
     </row>
     <row r="101" spans="2:21">
       <c r="B101" s="10"/>
-      <c r="C101" s="39"/>
+      <c r="C101" s="41"/>
       <c r="D101" s="10">
         <v>3</v>
       </c>
       <c r="E101" s="10"/>
-      <c r="F101" s="108" t="s">
-        <v>120</v>
-      </c>
-      <c r="L101" s="47"/>
+      <c r="F101" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="L101" s="51"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
-      <c r="Q101" s="45" t="s">
+      <c r="Q101" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="R101" s="35"/>
-      <c r="S101" s="45"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="48"/>
       <c r="T101" s="11"/>
-      <c r="U101" s="41"/>
+      <c r="U101" s="43"/>
     </row>
     <row r="102" spans="2:21">
-      <c r="B102" s="34"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="34">
+      <c r="B102" s="36"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="36">
         <v>4</v>
       </c>
-      <c r="E102" s="34"/>
-      <c r="F102" s="109" t="s">
-        <v>121</v>
-      </c>
-      <c r="G102" s="68"/>
-      <c r="H102" s="68"/>
-      <c r="I102" s="68"/>
-      <c r="J102" s="68"/>
-      <c r="K102" s="68"/>
-      <c r="L102" s="48"/>
-      <c r="M102" s="48"/>
-      <c r="N102" s="48"/>
-      <c r="O102" s="48"/>
-      <c r="P102" s="48"/>
-      <c r="Q102" s="45"/>
-      <c r="R102" s="35"/>
-      <c r="S102" s="45"/>
-      <c r="T102" s="35"/>
-      <c r="U102" s="100"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="53"/>
+      <c r="M102" s="53"/>
+      <c r="N102" s="53"/>
+      <c r="O102" s="53"/>
+      <c r="P102" s="53"/>
+      <c r="Q102" s="48"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="48"/>
+      <c r="T102" s="37"/>
+      <c r="U102" s="109"/>
     </row>
     <row r="107" spans="6:11">
-      <c r="F107" s="110"/>
-      <c r="G107" s="47"/>
-      <c r="H107" s="47"/>
-      <c r="I107" s="47"/>
-      <c r="J107" s="47"/>
-      <c r="K107" s="47"/>
+      <c r="F107" s="121"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
     </row>
     <row r="108" spans="6:11">
-      <c r="F108" s="110"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
-      <c r="I108" s="47"/>
-      <c r="J108" s="47"/>
-      <c r="K108" s="47"/>
+      <c r="F108" s="121"/>
+      <c r="G108" s="51"/>
+      <c r="H108" s="51"/>
+      <c r="I108" s="51"/>
+      <c r="J108" s="51"/>
+      <c r="K108" s="51"/>
     </row>
     <row r="109" spans="6:11">
-      <c r="F109" s="110"/>
-      <c r="G109" s="47"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="47"/>
-      <c r="J109" s="47"/>
-      <c r="K109" s="47"/>
+      <c r="F109" s="121"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="51"/>
+      <c r="J109" s="51"/>
+      <c r="K109" s="51"/>
     </row>
     <row r="110" spans="6:11">
-      <c r="F110" s="110"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="47"/>
-      <c r="J110" s="47"/>
-      <c r="K110" s="47"/>
+      <c r="F110" s="121"/>
+      <c r="G110" s="51"/>
+      <c r="H110" s="51"/>
+      <c r="I110" s="51"/>
+      <c r="J110" s="51"/>
+      <c r="K110" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="76">

--- a/仕様書/作業スケジュール_PG.xlsx
+++ b/仕様書/作業スケジュール_PG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22935" windowHeight="9795"/>
+    <workbookView windowWidth="22440" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -384,12 +384,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -405,57 +405,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,8 +426,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,16 +449,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,32 +480,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,9 +502,64 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -583,13 +590,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,55 +650,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,31 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,13 +704,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,19 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,15 +1001,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,13 +1020,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,21 +1074,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1074,24 +1085,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,149 +1110,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1594,6 +1601,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1609,7 +1619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1965,8 +1975,8 @@
   <sheetPr/>
   <dimension ref="B1:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1416666666667" defaultRowHeight="14.25"/>
@@ -3616,7 +3626,7 @@
       <c r="M65" s="54"/>
       <c r="N65" s="90"/>
       <c r="O65" s="90"/>
-      <c r="P65" s="122"/>
+      <c r="P65" s="123"/>
       <c r="Q65" s="11"/>
       <c r="R65" s="41"/>
       <c r="S65" s="10"/>
@@ -3638,7 +3648,7 @@
       <c r="I66" s="1"/>
       <c r="N66" s="90"/>
       <c r="O66" s="90"/>
-      <c r="P66" s="122"/>
+      <c r="P66" s="123"/>
       <c r="Q66" s="11"/>
       <c r="R66" s="41"/>
       <c r="S66" s="10"/>
@@ -3662,9 +3672,9 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="123"/>
-      <c r="O67" s="123"/>
-      <c r="P67" s="124"/>
+      <c r="N67" s="124"/>
+      <c r="O67" s="124"/>
+      <c r="P67" s="125"/>
       <c r="Q67" s="11"/>
       <c r="R67" s="41"/>
       <c r="S67" s="10"/>
@@ -3688,9 +3698,9 @@
       <c r="K68" s="54"/>
       <c r="L68" s="54"/>
       <c r="M68" s="54"/>
-      <c r="N68" s="123"/>
-      <c r="O68" s="123"/>
-      <c r="P68" s="124"/>
+      <c r="N68" s="124"/>
+      <c r="O68" s="124"/>
+      <c r="P68" s="125"/>
       <c r="Q68" s="11"/>
       <c r="R68" s="41"/>
       <c r="S68" s="10"/>
@@ -3714,9 +3724,9 @@
       <c r="K69" s="54"/>
       <c r="L69" s="54"/>
       <c r="M69" s="54"/>
-      <c r="N69" s="125"/>
-      <c r="O69" s="125"/>
-      <c r="P69" s="126"/>
+      <c r="N69" s="126"/>
+      <c r="O69" s="126"/>
+      <c r="P69" s="127"/>
       <c r="Q69" s="11"/>
       <c r="R69" s="41"/>
       <c r="S69" s="10"/>
@@ -3812,17 +3822,17 @@
         <v>3</v>
       </c>
       <c r="E73" s="45"/>
-      <c r="F73" s="54" t="s">
+      <c r="F73" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
+      <c r="G73" s="116"/>
+      <c r="H73" s="116"/>
+      <c r="I73" s="116"/>
+      <c r="J73" s="116"/>
+      <c r="K73" s="116"/>
+      <c r="L73" s="116"/>
+      <c r="M73" s="116"/>
+      <c r="N73" s="116"/>
       <c r="O73" s="54"/>
       <c r="P73" s="78"/>
       <c r="Q73" s="11"/>
@@ -3877,8 +3887,8 @@
       <c r="N75" s="82"/>
       <c r="O75" s="82"/>
       <c r="P75" s="83"/>
-      <c r="Q75" s="128"/>
-      <c r="R75" s="128"/>
+      <c r="Q75" s="129"/>
+      <c r="R75" s="129"/>
       <c r="S75" s="10"/>
       <c r="T75" s="11"/>
       <c r="U75" s="43"/>
@@ -3906,7 +3916,7 @@
       <c r="Q76" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="R76" s="129"/>
+      <c r="R76" s="130"/>
       <c r="S76" s="10"/>
       <c r="T76" s="11"/>
       <c r="U76" s="43"/>
@@ -3929,7 +3939,7 @@
       <c r="O77" s="90"/>
       <c r="P77" s="90"/>
       <c r="Q77" s="12"/>
-      <c r="R77" s="129"/>
+      <c r="R77" s="130"/>
       <c r="S77" s="10"/>
       <c r="T77" s="11"/>
       <c r="U77" s="43"/>
@@ -3951,11 +3961,11 @@
       <c r="K78" s="77"/>
       <c r="L78" s="77"/>
       <c r="M78" s="77"/>
-      <c r="N78" s="127"/>
-      <c r="O78" s="127"/>
-      <c r="P78" s="127"/>
+      <c r="N78" s="128"/>
+      <c r="O78" s="128"/>
+      <c r="P78" s="128"/>
       <c r="Q78" s="38"/>
-      <c r="R78" s="130"/>
+      <c r="R78" s="131"/>
       <c r="S78" s="36"/>
       <c r="T78" s="37"/>
       <c r="U78" s="109"/>
@@ -3971,19 +3981,19 @@
       <c r="E82" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F82" s="116" t="s">
+      <c r="F82" s="117" t="s">
         <v>100</v>
       </c>
-      <c r="G82" s="116"/>
-      <c r="H82" s="116"/>
-      <c r="I82" s="116"/>
-      <c r="J82" s="116"/>
-      <c r="K82" s="116"/>
-      <c r="L82" s="116"/>
-      <c r="M82" s="116"/>
-      <c r="N82" s="116"/>
-      <c r="O82" s="116"/>
-      <c r="P82" s="116"/>
+      <c r="G82" s="117"/>
+      <c r="H82" s="117"/>
+      <c r="I82" s="117"/>
+      <c r="J82" s="117"/>
+      <c r="K82" s="117"/>
+      <c r="L82" s="117"/>
+      <c r="M82" s="117"/>
+      <c r="N82" s="117"/>
+      <c r="O82" s="117"/>
+      <c r="P82" s="117"/>
       <c r="Q82" s="6" t="s">
         <v>101</v>
       </c>
@@ -4014,10 +4024,10 @@
       <c r="N83" s="77"/>
       <c r="O83" s="77"/>
       <c r="P83" s="77"/>
-      <c r="Q83" s="131" t="s">
+      <c r="Q83" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="R83" s="132"/>
+      <c r="R83" s="133"/>
       <c r="S83" s="36"/>
       <c r="T83" s="37"/>
       <c r="U83" s="109"/>
@@ -4055,24 +4065,24 @@
       <c r="E87" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="117" t="s">
+      <c r="F87" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="G87" s="117"/>
-      <c r="H87" s="117"/>
-      <c r="I87" s="117"/>
-      <c r="J87" s="117"/>
-      <c r="K87" s="117"/>
-      <c r="L87" s="117"/>
-      <c r="M87" s="117"/>
-      <c r="N87" s="117"/>
-      <c r="O87" s="117"/>
-      <c r="P87" s="117"/>
-      <c r="Q87" s="131" t="s">
+      <c r="G87" s="118"/>
+      <c r="H87" s="118"/>
+      <c r="I87" s="118"/>
+      <c r="J87" s="118"/>
+      <c r="K87" s="118"/>
+      <c r="L87" s="118"/>
+      <c r="M87" s="118"/>
+      <c r="N87" s="118"/>
+      <c r="O87" s="118"/>
+      <c r="P87" s="118"/>
+      <c r="Q87" s="132" t="s">
         <v>8</v>
       </c>
       <c r="R87" s="95"/>
-      <c r="S87" s="133" t="s">
+      <c r="S87" s="134" t="s">
         <v>106</v>
       </c>
       <c r="T87" s="7"/>
@@ -4320,19 +4330,19 @@
       <c r="E99" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F99" s="118" t="s">
+      <c r="F99" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="116"/>
-      <c r="L99" s="117"/>
-      <c r="M99" s="117"/>
-      <c r="N99" s="117"/>
-      <c r="O99" s="117"/>
-      <c r="P99" s="117"/>
+      <c r="G99" s="117"/>
+      <c r="H99" s="117"/>
+      <c r="I99" s="117"/>
+      <c r="J99" s="117"/>
+      <c r="K99" s="117"/>
+      <c r="L99" s="118"/>
+      <c r="M99" s="118"/>
+      <c r="N99" s="118"/>
+      <c r="O99" s="118"/>
+      <c r="P99" s="118"/>
       <c r="Q99" s="21" t="s">
         <v>48</v>
       </c>
@@ -4350,7 +4360,7 @@
         <v>2</v>
       </c>
       <c r="E100" s="10"/>
-      <c r="F100" s="119" t="s">
+      <c r="F100" s="120" t="s">
         <v>117</v>
       </c>
       <c r="L100" s="51"/>
@@ -4359,7 +4369,7 @@
       <c r="O100" s="5"/>
       <c r="P100" s="5"/>
       <c r="Q100" s="33"/>
-      <c r="R100" s="132"/>
+      <c r="R100" s="133"/>
       <c r="S100" s="21"/>
       <c r="T100" s="11"/>
       <c r="U100" s="43"/>
@@ -4371,7 +4381,7 @@
         <v>3</v>
       </c>
       <c r="E101" s="10"/>
-      <c r="F101" s="119" t="s">
+      <c r="F101" s="120" t="s">
         <v>118</v>
       </c>
       <c r="L101" s="51"/>
@@ -4394,7 +4404,7 @@
         <v>4</v>
       </c>
       <c r="E102" s="36"/>
-      <c r="F102" s="120" t="s">
+      <c r="F102" s="121" t="s">
         <v>119</v>
       </c>
       <c r="G102" s="77"/>
@@ -4414,7 +4424,7 @@
       <c r="U102" s="109"/>
     </row>
     <row r="107" spans="6:11">
-      <c r="F107" s="121"/>
+      <c r="F107" s="122"/>
       <c r="G107" s="51"/>
       <c r="H107" s="51"/>
       <c r="I107" s="51"/>
@@ -4422,7 +4432,7 @@
       <c r="K107" s="51"/>
     </row>
     <row r="108" spans="6:11">
-      <c r="F108" s="121"/>
+      <c r="F108" s="122"/>
       <c r="G108" s="51"/>
       <c r="H108" s="51"/>
       <c r="I108" s="51"/>
@@ -4430,7 +4440,7 @@
       <c r="K108" s="51"/>
     </row>
     <row r="109" spans="6:11">
-      <c r="F109" s="121"/>
+      <c r="F109" s="122"/>
       <c r="G109" s="51"/>
       <c r="H109" s="51"/>
       <c r="I109" s="51"/>
@@ -4438,7 +4448,7 @@
       <c r="K109" s="51"/>
     </row>
     <row r="110" spans="6:11">
-      <c r="F110" s="121"/>
+      <c r="F110" s="122"/>
       <c r="G110" s="51"/>
       <c r="H110" s="51"/>
       <c r="I110" s="51"/>
@@ -4446,7 +4456,7 @@
       <c r="K110" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="77">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:U4"/>
@@ -4467,6 +4477,7 @@
     <mergeCell ref="F66:I66"/>
     <mergeCell ref="F67:M67"/>
     <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F73:N73"/>
     <mergeCell ref="Q82:R82"/>
     <mergeCell ref="S82:U82"/>
     <mergeCell ref="Q83:R83"/>
